--- a/func/config/config.xlsx
+++ b/func/config/config.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9024" activeTab="3"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="0x146" sheetId="1" r:id="rId1"/>
     <sheet name="0x17F" sheetId="2" r:id="rId2"/>
     <sheet name="0x31B" sheetId="4" r:id="rId3"/>
-    <sheet name="0x271" sheetId="3" r:id="rId4"/>
+    <sheet name="rel" sheetId="6" r:id="rId4"/>
+    <sheet name="0x271" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="109">
   <si>
     <t>Signal Name</t>
   </si>
@@ -328,6 +329,9 @@
   </si>
   <si>
     <t>INS_GNSS_Time_Valid</t>
+  </si>
+  <si>
+    <t>重写了起始位：B3=B2+C2，B4=B3+C3 ...以此类推</t>
   </si>
   <si>
     <t>INS_TiStamp</t>
@@ -559,13 +563,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCC99FF"/>
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor rgb="FFCC99FF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1066,41 +1070,41 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -1457,15 +1461,15 @@
   <sheetPr/>
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C42" sqref="C2:C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="25.2222222222222" customWidth="1"/>
-    <col min="2" max="2" width="16.7777777777778" customWidth="1"/>
-    <col min="3" max="3" width="19.8888888888889" customWidth="1"/>
+    <col min="1" max="1" width="25.225" customWidth="1"/>
+    <col min="2" max="2" width="16.775" customWidth="1"/>
+    <col min="3" max="3" width="19.8916666666667" customWidth="1"/>
     <col min="4" max="4" width="18.3333333333333" customWidth="1"/>
     <col min="5" max="5" width="20.6666666666667" customWidth="1"/>
   </cols>
@@ -1488,7 +1492,7 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="13" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="6">
@@ -1505,7 +1509,7 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="6">
@@ -1514,7 +1518,7 @@
       <c r="C3" s="6">
         <v>3</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="17">
         <v>1.7452e-5</v>
       </c>
       <c r="E3" s="5">
@@ -1522,7 +1526,7 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="13" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="6">
@@ -1539,7 +1543,7 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="6">
@@ -1548,7 +1552,7 @@
       <c r="C5" s="6">
         <v>3</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="17">
         <v>1.7452e-5</v>
       </c>
       <c r="E5" s="5">
@@ -1556,7 +1560,7 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="6">
@@ -1573,7 +1577,7 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="13" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="6">
@@ -1582,7 +1586,7 @@
       <c r="C7" s="6">
         <v>3</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="17">
         <v>1.7452e-5</v>
       </c>
       <c r="E7" s="5">
@@ -1624,7 +1628,7 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="13" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="6">
@@ -1641,7 +1645,7 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="13" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="6">
@@ -1650,15 +1654,15 @@
       <c r="C11" s="6">
         <v>2</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="17">
         <v>1.7452e-5</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="17">
         <v>-0.17452</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="13" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="6">
@@ -1675,7 +1679,7 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="6">
@@ -1684,15 +1688,15 @@
       <c r="C13" s="6">
         <v>2</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="17">
         <v>1.7452e-5</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="17">
         <v>-0.17452</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="13" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="6">
@@ -1709,7 +1713,7 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="13" t="s">
         <v>18</v>
       </c>
       <c r="B15" s="6">
@@ -1718,15 +1722,15 @@
       <c r="C15" s="6">
         <v>2</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="17">
         <v>1.7452e-5</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="17">
         <v>-0.17452</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="13" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="6">
@@ -1743,7 +1747,7 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="13" t="s">
         <v>20</v>
       </c>
       <c r="B17" s="6">
@@ -1760,7 +1764,7 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="13" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="6">
@@ -1777,7 +1781,7 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="13" t="s">
         <v>22</v>
       </c>
       <c r="B19" s="6">
@@ -1794,7 +1798,7 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="13" t="s">
         <v>23</v>
       </c>
       <c r="B20" s="6">
@@ -1803,15 +1807,15 @@
       <c r="C20" s="6">
         <v>3</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="17">
         <v>0.0001</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="17">
         <v>-5</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="13" t="s">
         <v>24</v>
       </c>
       <c r="B21" s="6">
@@ -1820,15 +1824,15 @@
       <c r="C21" s="6">
         <v>3</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="17">
         <v>0.0001</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="17">
         <v>-5</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="13" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="6">
@@ -1837,15 +1841,15 @@
       <c r="C22" s="6">
         <v>3</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="17">
         <v>0.0001</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="17">
         <v>-5</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="13" t="s">
         <v>26</v>
       </c>
       <c r="B23" s="4">
@@ -1862,7 +1866,7 @@
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="13" t="s">
         <v>27</v>
       </c>
       <c r="B24" s="4">
@@ -1879,24 +1883,24 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B25" s="15">
         <v>65</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="15">
         <v>2</v>
       </c>
-      <c r="D25" s="11">
-        <v>1</v>
-      </c>
-      <c r="E25" s="11">
+      <c r="D25" s="16">
+        <v>1</v>
+      </c>
+      <c r="E25" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="13" t="s">
         <v>29</v>
       </c>
       <c r="B26" s="4">
@@ -1905,15 +1909,15 @@
       <c r="C26" s="4">
         <v>3</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D26" s="17">
         <v>0.001</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E26" s="17">
         <v>-40</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="13" t="s">
         <v>30</v>
       </c>
       <c r="B27" s="4">
@@ -1922,15 +1926,15 @@
       <c r="C27" s="4">
         <v>3</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D27" s="17">
         <v>1.7452e-5</v>
       </c>
-      <c r="E27" s="12">
+      <c r="E27" s="17">
         <v>-4.363</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="13" t="s">
         <v>31</v>
       </c>
       <c r="B28" s="4">
@@ -1939,15 +1943,15 @@
       <c r="C28" s="4">
         <v>3</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D28" s="17">
         <v>0.001</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E28" s="17">
         <v>-40</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="13" t="s">
         <v>32</v>
       </c>
       <c r="B29" s="4">
@@ -1956,15 +1960,15 @@
       <c r="C29" s="4">
         <v>3</v>
       </c>
-      <c r="D29" s="12">
+      <c r="D29" s="17">
         <v>1.7452e-5</v>
       </c>
-      <c r="E29" s="12">
+      <c r="E29" s="17">
         <v>-4.363</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="13" t="s">
         <v>33</v>
       </c>
       <c r="B30" s="4">
@@ -1973,15 +1977,15 @@
       <c r="C30" s="4">
         <v>3</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D30" s="17">
         <v>0.001</v>
       </c>
-      <c r="E30" s="12">
+      <c r="E30" s="17">
         <v>-40</v>
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="13" t="s">
         <v>34</v>
       </c>
       <c r="B31" s="4">
@@ -1990,15 +1994,15 @@
       <c r="C31" s="4">
         <v>3</v>
       </c>
-      <c r="D31" s="12">
+      <c r="D31" s="17">
         <v>1.7452e-5</v>
       </c>
-      <c r="E31" s="12">
+      <c r="E31" s="17">
         <v>-4.363</v>
       </c>
     </row>
-    <row r="32" ht="26.4" spans="1:5">
-      <c r="A32" s="8" t="s">
+    <row r="32" spans="1:5">
+      <c r="A32" s="13" t="s">
         <v>35</v>
       </c>
       <c r="B32" s="4">
@@ -2007,15 +2011,15 @@
       <c r="C32" s="4">
         <v>3</v>
       </c>
-      <c r="D32" s="12">
+      <c r="D32" s="17">
         <v>1e-6</v>
       </c>
-      <c r="E32" s="12">
+      <c r="E32" s="17">
         <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="13" t="s">
         <v>36</v>
       </c>
       <c r="B33" s="4">
@@ -2024,15 +2028,15 @@
       <c r="C33" s="4">
         <v>3</v>
       </c>
-      <c r="D33" s="12">
+      <c r="D33" s="17">
         <v>1e-6</v>
       </c>
-      <c r="E33" s="12">
+      <c r="E33" s="17">
         <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="13" t="s">
         <v>37</v>
       </c>
       <c r="B34" s="4">
@@ -2041,15 +2045,15 @@
       <c r="C34" s="4">
         <v>3</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D34" s="17">
         <v>1e-6</v>
       </c>
-      <c r="E34" s="12">
+      <c r="E34" s="17">
         <v>-1</v>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="13" t="s">
         <v>38</v>
       </c>
       <c r="B35" s="4">
@@ -2058,129 +2062,129 @@
       <c r="C35" s="4">
         <v>3</v>
       </c>
-      <c r="D35" s="12">
+      <c r="D35" s="17">
         <v>1e-6</v>
       </c>
-      <c r="E35" s="12">
+      <c r="E35" s="17">
         <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B36" s="15">
+      <c r="B36" s="8">
         <v>97</v>
       </c>
-      <c r="C36" s="15">
-        <v>1</v>
-      </c>
-      <c r="D36" s="16">
-        <v>1</v>
-      </c>
-      <c r="E36" s="16">
+      <c r="C36" s="8">
+        <v>1</v>
+      </c>
+      <c r="D36" s="9">
+        <v>1</v>
+      </c>
+      <c r="E36" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B37" s="15">
+      <c r="B37" s="8">
         <v>98</v>
       </c>
-      <c r="C37" s="17">
+      <c r="C37" s="10">
         <v>4</v>
       </c>
-      <c r="D37" s="18">
+      <c r="D37" s="11">
         <v>0.001</v>
       </c>
-      <c r="E37" s="18">
+      <c r="E37" s="11">
         <v>-2147483.647</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B38" s="15">
+      <c r="B38" s="8">
         <v>102</v>
       </c>
-      <c r="C38" s="17">
+      <c r="C38" s="10">
         <v>4</v>
       </c>
-      <c r="D38" s="18">
+      <c r="D38" s="11">
         <v>0.001</v>
       </c>
-      <c r="E38" s="18">
+      <c r="E38" s="11">
         <v>-2147483.647</v>
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B39" s="15">
+      <c r="B39" s="8">
         <v>106</v>
       </c>
-      <c r="C39" s="17">
+      <c r="C39" s="10">
         <v>4</v>
       </c>
-      <c r="D39" s="18">
+      <c r="D39" s="11">
         <v>0.001</v>
       </c>
-      <c r="E39" s="18">
+      <c r="E39" s="11">
         <v>-2147483.647</v>
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="14" t="s">
+      <c r="A40" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B40" s="15">
+      <c r="B40" s="8">
         <v>110</v>
       </c>
-      <c r="C40" s="15">
-        <v>3</v>
-      </c>
-      <c r="D40" s="16">
+      <c r="C40" s="8">
+        <v>3</v>
+      </c>
+      <c r="D40" s="9">
         <v>0.001</v>
       </c>
-      <c r="E40" s="16">
+      <c r="E40" s="9">
         <v>-90</v>
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="14" t="s">
+      <c r="A41" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="15">
+      <c r="B41" s="8">
         <v>113</v>
       </c>
-      <c r="C41" s="15">
-        <v>3</v>
-      </c>
-      <c r="D41" s="16">
+      <c r="C41" s="8">
+        <v>3</v>
+      </c>
+      <c r="D41" s="9">
         <v>0.001</v>
       </c>
-      <c r="E41" s="16">
+      <c r="E41" s="9">
         <v>-180</v>
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="14" t="s">
+      <c r="A42" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B42" s="15">
+      <c r="B42" s="8">
         <v>116</v>
       </c>
-      <c r="C42" s="15">
-        <v>3</v>
-      </c>
-      <c r="D42" s="16">
+      <c r="C42" s="8">
+        <v>3</v>
+      </c>
+      <c r="D42" s="9">
         <v>0.001</v>
       </c>
-      <c r="E42" s="16">
+      <c r="E42" s="9">
         <v>0</v>
       </c>
     </row>
@@ -2196,17 +2200,17 @@
   <sheetPr/>
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="25.6666666666667" customWidth="1"/>
-    <col min="2" max="5" width="19.8888888888889" customWidth="1"/>
+    <col min="2" max="5" width="19.8916666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="39.6" spans="1:5">
+    <row r="1" ht="40.5" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2309,7 +2313,7 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="13" t="s">
         <v>52</v>
       </c>
       <c r="B7" s="6">
@@ -2360,7 +2364,7 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="13" t="s">
         <v>55</v>
       </c>
       <c r="B10" s="6">
@@ -2547,7 +2551,7 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="13" t="s">
         <v>65</v>
       </c>
       <c r="B21" s="6">
@@ -2564,7 +2568,7 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="13" t="s">
         <v>66</v>
       </c>
       <c r="B22" s="6">
@@ -2581,7 +2585,7 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="13" t="s">
         <v>67</v>
       </c>
       <c r="B23" s="6">
@@ -2598,7 +2602,7 @@
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="13" t="s">
         <v>68</v>
       </c>
       <c r="B24" s="6">
@@ -2615,7 +2619,7 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="13" t="s">
         <v>69</v>
       </c>
       <c r="B25" s="6">
@@ -2632,7 +2636,7 @@
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="13" t="s">
         <v>70</v>
       </c>
       <c r="B26" s="6">
@@ -2700,7 +2704,7 @@
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="13" t="s">
         <v>27</v>
       </c>
       <c r="B30" s="4">
@@ -2717,36 +2721,36 @@
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="B31" s="10">
+      <c r="B31" s="15">
         <v>66</v>
       </c>
-      <c r="C31" s="10">
-        <v>1</v>
-      </c>
-      <c r="D31" s="11">
-        <v>1</v>
-      </c>
-      <c r="E31" s="11">
+      <c r="C31" s="15">
+        <v>1</v>
+      </c>
+      <c r="D31" s="16">
+        <v>1</v>
+      </c>
+      <c r="E31" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="B32" s="10">
+      <c r="B32" s="15">
         <v>67</v>
       </c>
-      <c r="C32" s="10">
+      <c r="C32" s="15">
         <v>2</v>
       </c>
-      <c r="D32" s="11">
-        <v>1</v>
-      </c>
-      <c r="E32" s="11">
+      <c r="D32" s="16">
+        <v>1</v>
+      </c>
+      <c r="E32" s="16">
         <v>0</v>
       </c>
     </row>
@@ -2765,16 +2769,16 @@
   <sheetPr/>
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="5" width="20.8888888888889" customWidth="1"/>
+    <col min="1" max="5" width="20.8916666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="39.6" spans="1:5">
+    <row r="1" ht="40.5" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2804,7 +2808,7 @@
       <c r="D2" s="5">
         <v>1</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="12">
         <v>2000</v>
       </c>
     </row>
@@ -3148,7 +3152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" ht="26.4" spans="1:5">
+    <row r="23" ht="27" spans="1:5">
       <c r="A23" s="3" t="s">
         <v>96</v>
       </c>
@@ -3165,7 +3169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" ht="26.4" spans="1:5">
+    <row r="24" ht="27" spans="1:5">
       <c r="A24" s="3" t="s">
         <v>97</v>
       </c>
@@ -3182,7 +3186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" ht="26.4" spans="1:5">
+    <row r="25" ht="27" spans="1:5">
       <c r="A25" s="3" t="s">
         <v>98</v>
       </c>
@@ -3276,18 +3280,197 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="25.6666666666667" customWidth="1"/>
+    <col min="2" max="5" width="19.8916666666667" customWidth="1"/>
+    <col min="7" max="7" width="64.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="40.5" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="6">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="8">
+        <v>4</v>
+      </c>
+      <c r="C3" s="8">
+        <v>1</v>
+      </c>
+      <c r="D3" s="9">
+        <v>1</v>
+      </c>
+      <c r="E3" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="8">
+        <v>5</v>
+      </c>
+      <c r="C4" s="10">
+        <v>4</v>
+      </c>
+      <c r="D4" s="11">
+        <v>0.001</v>
+      </c>
+      <c r="E4" s="11">
+        <v>-2147483.647</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="8">
+        <v>9</v>
+      </c>
+      <c r="C5" s="10">
+        <v>4</v>
+      </c>
+      <c r="D5" s="11">
+        <v>0.001</v>
+      </c>
+      <c r="E5" s="11">
+        <v>-2147483.647</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="8">
+        <v>13</v>
+      </c>
+      <c r="C6" s="10">
+        <v>4</v>
+      </c>
+      <c r="D6" s="11">
+        <v>0.001</v>
+      </c>
+      <c r="E6" s="11">
+        <v>-2147483.647</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="8">
+        <v>17</v>
+      </c>
+      <c r="C7" s="8">
+        <v>3</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0.001</v>
+      </c>
+      <c r="E7" s="9">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="8">
+        <v>20</v>
+      </c>
+      <c r="C8" s="8">
+        <v>3</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0.001</v>
+      </c>
+      <c r="E8" s="9">
+        <v>-180</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="8">
+        <v>23</v>
+      </c>
+      <c r="C9" s="8">
+        <v>3</v>
+      </c>
+      <c r="D9" s="9">
+        <v>0.001</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="5" width="15.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="39.6" spans="1:5">
+    <row r="1" ht="40.5" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3306,7 +3489,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B2" s="4">
         <v>0</v>
@@ -3323,7 +3506,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B3" s="4">
         <v>8</v>
@@ -3340,7 +3523,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B4" s="4">
         <v>9</v>
@@ -3357,7 +3540,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B5" s="4">
         <v>10</v>
@@ -3372,9 +3555,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" ht="26.4" spans="1:5">
+    <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B6" s="4">
         <v>11</v>

--- a/func/config/config.xlsx
+++ b/func/config/config.xlsx
@@ -4,21 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="3"/>
+    <workbookView windowWidth="22368" windowHeight="9024" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="0x146" sheetId="1" r:id="rId1"/>
     <sheet name="0x17F" sheetId="2" r:id="rId2"/>
     <sheet name="0x31B" sheetId="4" r:id="rId3"/>
     <sheet name="rel" sheetId="6" r:id="rId4"/>
-    <sheet name="0x271" sheetId="3" r:id="rId5"/>
+    <sheet name="0x5B3" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="110">
   <si>
     <t>Signal Name</t>
   </si>
@@ -334,19 +334,22 @@
     <t>重写了起始位：B3=B2+C2，B4=B3+C3 ...以此类推</t>
   </si>
   <si>
-    <t>INS_TiStamp</t>
-  </si>
-  <si>
-    <t>INS_TiBas</t>
-  </si>
-  <si>
-    <t>INS_TiLeap</t>
-  </si>
-  <si>
-    <t>INS_TiOut</t>
-  </si>
-  <si>
-    <t>INS_TIleap_Difference</t>
+    <t>INS_CorrelationSystem_failure_status</t>
+  </si>
+  <si>
+    <t>INS_IMU_Temp</t>
+  </si>
+  <si>
+    <t>INS_Sts</t>
+  </si>
+  <si>
+    <t>INS_Wheel_Scale_factor</t>
+  </si>
+  <si>
+    <t>INS_Longitude_Hemisphere</t>
+  </si>
+  <si>
+    <t>INS_Latitude_Hemisphere</t>
   </si>
 </sst>
 </file>
@@ -995,10 +998,10 @@
     <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1058,19 +1061,19 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1088,7 +1091,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1144,8 +1147,8 @@
     <cellStyle name="适中" xfId="33" builtinId="28"/>
     <cellStyle name="20% - 强调文字颜色 5" xfId="34" builtinId="46"/>
     <cellStyle name="强调文字颜色 1" xfId="35" builtinId="29"/>
-    <cellStyle name="常规 10 3 2 2 2" xfId="36"/>
-    <cellStyle name="强调文字颜色 2 3" xfId="37"/>
+    <cellStyle name="强调文字颜色 2 3" xfId="36"/>
+    <cellStyle name="常规 10 3 2 2 2" xfId="37"/>
     <cellStyle name="20% - 强调文字颜色 1" xfId="38" builtinId="30"/>
     <cellStyle name="40% - 强调文字颜色 1" xfId="39" builtinId="31"/>
     <cellStyle name="20% - 强调文字颜色 2" xfId="40" builtinId="34"/>
@@ -1465,11 +1468,11 @@
       <selection activeCell="C42" sqref="C2:C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="25.225" customWidth="1"/>
-    <col min="2" max="2" width="16.775" customWidth="1"/>
-    <col min="3" max="3" width="19.8916666666667" customWidth="1"/>
+    <col min="1" max="1" width="25.2222222222222" customWidth="1"/>
+    <col min="2" max="2" width="16.7777777777778" customWidth="1"/>
+    <col min="3" max="3" width="19.8888888888889" customWidth="1"/>
     <col min="4" max="4" width="18.3333333333333" customWidth="1"/>
     <col min="5" max="5" width="20.6666666666667" customWidth="1"/>
   </cols>
@@ -1495,10 +1498,10 @@
       <c r="A2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="6">
-        <v>0</v>
-      </c>
-      <c r="C2" s="6">
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
         <v>3</v>
       </c>
       <c r="D2" s="5">
@@ -1512,10 +1515,10 @@
       <c r="A3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="6">
-        <v>3</v>
-      </c>
-      <c r="C3" s="6">
+      <c r="B3" s="4">
+        <v>3</v>
+      </c>
+      <c r="C3" s="4">
         <v>3</v>
       </c>
       <c r="D3" s="17">
@@ -1529,10 +1532,10 @@
       <c r="A4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="4">
         <v>6</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="4">
         <v>3</v>
       </c>
       <c r="D4" s="5">
@@ -1546,10 +1549,10 @@
       <c r="A5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="4">
         <v>9</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="4">
         <v>3</v>
       </c>
       <c r="D5" s="17">
@@ -1563,10 +1566,10 @@
       <c r="A6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="4">
         <v>12</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="4">
         <v>3</v>
       </c>
       <c r="D6" s="5">
@@ -1580,10 +1583,10 @@
       <c r="A7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="4">
         <v>15</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="4">
         <v>3</v>
       </c>
       <c r="D7" s="17">
@@ -1597,10 +1600,10 @@
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="4">
         <v>18</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="4">
         <v>4</v>
       </c>
       <c r="D8" s="5">
@@ -1614,10 +1617,10 @@
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="4">
         <v>22</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="4">
         <v>1</v>
       </c>
       <c r="D9" s="5">
@@ -1631,10 +1634,10 @@
       <c r="A10" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="4">
         <v>23</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="4">
         <v>2</v>
       </c>
       <c r="D10" s="5">
@@ -1648,10 +1651,10 @@
       <c r="A11" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="4">
         <v>25</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="4">
         <v>2</v>
       </c>
       <c r="D11" s="17">
@@ -1665,10 +1668,10 @@
       <c r="A12" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="4">
         <v>27</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="4">
         <v>2</v>
       </c>
       <c r="D12" s="5">
@@ -1682,10 +1685,10 @@
       <c r="A13" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="4">
         <v>29</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="4">
         <v>2</v>
       </c>
       <c r="D13" s="17">
@@ -1699,10 +1702,10 @@
       <c r="A14" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="4">
         <v>31</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="4">
         <v>2</v>
       </c>
       <c r="D14" s="5">
@@ -1716,10 +1719,10 @@
       <c r="A15" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="4">
         <v>33</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="4">
         <v>2</v>
       </c>
       <c r="D15" s="17">
@@ -1733,10 +1736,10 @@
       <c r="A16" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="4">
         <v>35</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="4">
         <v>3</v>
       </c>
       <c r="D16" s="5">
@@ -1750,10 +1753,10 @@
       <c r="A17" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="4">
         <v>38</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="4">
         <v>3</v>
       </c>
       <c r="D17" s="5">
@@ -1767,10 +1770,10 @@
       <c r="A18" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="4">
         <v>41</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="4">
         <v>3</v>
       </c>
       <c r="D18" s="5">
@@ -1784,10 +1787,10 @@
       <c r="A19" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="4">
         <v>44</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="4">
         <v>3</v>
       </c>
       <c r="D19" s="5">
@@ -1801,10 +1804,10 @@
       <c r="A20" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="4">
         <v>47</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="4">
         <v>3</v>
       </c>
       <c r="D20" s="17">
@@ -1818,10 +1821,10 @@
       <c r="A21" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="4">
         <v>50</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="4">
         <v>3</v>
       </c>
       <c r="D21" s="17">
@@ -1835,10 +1838,10 @@
       <c r="A22" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="4">
         <v>53</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="4">
         <v>3</v>
       </c>
       <c r="D22" s="17">
@@ -1852,10 +1855,10 @@
       <c r="A23" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="6">
         <v>56</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="6">
         <v>8</v>
       </c>
       <c r="D23" s="5">
@@ -1869,10 +1872,10 @@
       <c r="A24" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="6">
         <v>64</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="4">
         <v>1</v>
       </c>
       <c r="D24" s="5">
@@ -1903,10 +1906,10 @@
       <c r="A26" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="6">
         <v>67</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="6">
         <v>3</v>
       </c>
       <c r="D26" s="17">
@@ -1920,10 +1923,10 @@
       <c r="A27" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="6">
         <v>70</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="6">
         <v>3</v>
       </c>
       <c r="D27" s="17">
@@ -1937,10 +1940,10 @@
       <c r="A28" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="6">
         <v>73</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="6">
         <v>3</v>
       </c>
       <c r="D28" s="17">
@@ -1954,10 +1957,10 @@
       <c r="A29" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="6">
         <v>76</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="6">
         <v>3</v>
       </c>
       <c r="D29" s="17">
@@ -1971,10 +1974,10 @@
       <c r="A30" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="6">
         <v>79</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="6">
         <v>3</v>
       </c>
       <c r="D30" s="17">
@@ -1988,10 +1991,10 @@
       <c r="A31" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="6">
         <v>82</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="6">
         <v>3</v>
       </c>
       <c r="D31" s="17">
@@ -2001,14 +2004,14 @@
         <v>-4.363</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" ht="26.4" spans="1:5">
       <c r="A32" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="6">
         <v>85</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="6">
         <v>3</v>
       </c>
       <c r="D32" s="17">
@@ -2022,10 +2025,10 @@
       <c r="A33" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" s="6">
         <v>88</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="6">
         <v>3</v>
       </c>
       <c r="D33" s="17">
@@ -2039,10 +2042,10 @@
       <c r="A34" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" s="6">
         <v>91</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="6">
         <v>3</v>
       </c>
       <c r="D34" s="17">
@@ -2056,10 +2059,10 @@
       <c r="A35" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="6">
         <v>94</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="6">
         <v>3</v>
       </c>
       <c r="D35" s="17">
@@ -2204,13 +2207,13 @@
       <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="25.6666666666667" customWidth="1"/>
-    <col min="2" max="5" width="19.8916666666667" customWidth="1"/>
+    <col min="2" max="5" width="19.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="40.5" spans="1:5">
+    <row r="1" ht="39.6" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2231,10 +2234,10 @@
       <c r="A2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="6">
-        <v>0</v>
-      </c>
-      <c r="C2" s="6">
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
         <v>3</v>
       </c>
       <c r="D2" s="5">
@@ -2248,10 +2251,10 @@
       <c r="A3" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="6">
-        <v>3</v>
-      </c>
-      <c r="C3" s="6">
+      <c r="B3" s="4">
+        <v>3</v>
+      </c>
+      <c r="C3" s="4">
         <v>2</v>
       </c>
       <c r="D3" s="5">
@@ -2265,10 +2268,10 @@
       <c r="A4" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="4">
         <v>5</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="4">
         <v>1</v>
       </c>
       <c r="D4" s="5">
@@ -2282,10 +2285,10 @@
       <c r="A5" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="4">
         <v>6</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="4">
         <v>1</v>
       </c>
       <c r="D5" s="5">
@@ -2299,10 +2302,10 @@
       <c r="A6" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="4">
         <v>7</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="4">
         <v>1</v>
       </c>
       <c r="D6" s="5">
@@ -2316,10 +2319,10 @@
       <c r="A7" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="4">
         <v>8</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="4">
         <v>4</v>
       </c>
       <c r="D7" s="5">
@@ -2333,10 +2336,10 @@
       <c r="A8" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="4">
         <v>12</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="4">
         <v>2</v>
       </c>
       <c r="D8" s="5">
@@ -2350,10 +2353,10 @@
       <c r="A9" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="4">
         <v>14</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="4">
         <v>1</v>
       </c>
       <c r="D9" s="5">
@@ -2367,10 +2370,10 @@
       <c r="A10" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="4">
         <v>15</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="4">
         <v>4</v>
       </c>
       <c r="D10" s="5">
@@ -2384,10 +2387,10 @@
       <c r="A11" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="4">
         <v>19</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="4">
         <v>2</v>
       </c>
       <c r="D11" s="5">
@@ -2401,10 +2404,10 @@
       <c r="A12" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="4">
         <v>21</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="4">
         <v>3</v>
       </c>
       <c r="D12" s="5">
@@ -2418,10 +2421,10 @@
       <c r="A13" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="4">
         <v>24</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="4">
         <v>2</v>
       </c>
       <c r="D13" s="5">
@@ -2435,10 +2438,10 @@
       <c r="A14" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="4">
         <v>26</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="4">
         <v>1</v>
       </c>
       <c r="D14" s="5">
@@ -2452,10 +2455,10 @@
       <c r="A15" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="4">
         <v>27</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="4">
         <v>3</v>
       </c>
       <c r="D15" s="5">
@@ -2469,10 +2472,10 @@
       <c r="A16" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="4">
         <v>30</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="4">
         <v>2</v>
       </c>
       <c r="D16" s="5">
@@ -2486,10 +2489,10 @@
       <c r="A17" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="4">
         <v>32</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="4">
         <v>1</v>
       </c>
       <c r="D17" s="5">
@@ -2503,10 +2506,10 @@
       <c r="A18" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="4">
         <v>33</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="4">
         <v>3</v>
       </c>
       <c r="D18" s="5">
@@ -2520,10 +2523,10 @@
       <c r="A19" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="4">
         <v>36</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="4">
         <v>2</v>
       </c>
       <c r="D19" s="5">
@@ -2537,10 +2540,10 @@
       <c r="A20" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="4">
         <v>38</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="4">
         <v>1</v>
       </c>
       <c r="D20" s="5">
@@ -2554,10 +2557,10 @@
       <c r="A21" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="4">
         <v>39</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="4">
         <v>2</v>
       </c>
       <c r="D21" s="5">
@@ -2571,10 +2574,10 @@
       <c r="A22" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="4">
         <v>41</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="4">
         <v>2</v>
       </c>
       <c r="D22" s="5">
@@ -2588,10 +2591,10 @@
       <c r="A23" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="4">
         <v>43</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="4">
         <v>2</v>
       </c>
       <c r="D23" s="5">
@@ -2605,10 +2608,10 @@
       <c r="A24" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="4">
         <v>45</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="4">
         <v>2</v>
       </c>
       <c r="D24" s="5">
@@ -2622,10 +2625,10 @@
       <c r="A25" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="4">
         <v>47</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="4">
         <v>2</v>
       </c>
       <c r="D25" s="5">
@@ -2639,10 +2642,10 @@
       <c r="A26" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="4">
         <v>49</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="4">
         <v>2</v>
       </c>
       <c r="D26" s="5">
@@ -2656,10 +2659,10 @@
       <c r="A27" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="4">
         <v>51</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="4">
         <v>2</v>
       </c>
       <c r="D27" s="5">
@@ -2673,10 +2676,10 @@
       <c r="A28" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="4">
         <v>53</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="4">
         <v>4</v>
       </c>
       <c r="D28" s="5">
@@ -2690,10 +2693,10 @@
       <c r="A29" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="6">
         <v>57</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="6">
         <v>8</v>
       </c>
       <c r="D29" s="5">
@@ -2707,10 +2710,10 @@
       <c r="A30" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="6">
         <v>65</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="4">
         <v>1</v>
       </c>
       <c r="D30" s="5">
@@ -2773,12 +2776,12 @@
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="5" width="20.8916666666667" customWidth="1"/>
+    <col min="1" max="5" width="20.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="40.5" spans="1:5">
+    <row r="1" ht="39.6" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2799,10 +2802,10 @@
       <c r="A2" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="4">
-        <v>0</v>
-      </c>
-      <c r="C2" s="6">
+      <c r="B2" s="6">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
         <v>2</v>
       </c>
       <c r="D2" s="5">
@@ -2816,10 +2819,10 @@
       <c r="A3" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="4">
         <v>2</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="4">
         <v>1</v>
       </c>
       <c r="D3" s="5">
@@ -2833,10 +2836,10 @@
       <c r="A4" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="6">
-        <v>3</v>
-      </c>
-      <c r="C4" s="6">
+      <c r="B4" s="4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4">
         <v>1</v>
       </c>
       <c r="D4" s="5">
@@ -2850,10 +2853,10 @@
       <c r="A5" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="4">
         <v>4</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="4">
         <v>1</v>
       </c>
       <c r="D5" s="5">
@@ -2867,10 +2870,10 @@
       <c r="A6" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="4">
         <v>5</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="4">
         <v>1</v>
       </c>
       <c r="D6" s="5">
@@ -2884,10 +2887,10 @@
       <c r="A7" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="4">
         <v>6</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="4">
         <v>1</v>
       </c>
       <c r="D7" s="5">
@@ -2901,10 +2904,10 @@
       <c r="A8" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="4">
         <v>7</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="4">
         <v>2</v>
       </c>
       <c r="D8" s="5">
@@ -2918,10 +2921,10 @@
       <c r="A9" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="4">
         <v>9</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="4">
         <v>3</v>
       </c>
       <c r="D9" s="5">
@@ -2935,10 +2938,10 @@
       <c r="A10" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="4">
         <v>12</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="4">
         <v>2</v>
       </c>
       <c r="D10" s="5">
@@ -2952,10 +2955,10 @@
       <c r="A11" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="4">
         <v>14</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="4">
         <v>3</v>
       </c>
       <c r="D11" s="5">
@@ -2969,10 +2972,10 @@
       <c r="A12" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="4">
         <v>17</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="4">
         <v>3</v>
       </c>
       <c r="D12" s="5">
@@ -2986,10 +2989,10 @@
       <c r="A13" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="4">
         <v>20</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="4">
         <v>3</v>
       </c>
       <c r="D13" s="5">
@@ -3003,10 +3006,10 @@
       <c r="A14" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="4">
         <v>23</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="4">
         <v>2</v>
       </c>
       <c r="D14" s="5">
@@ -3020,10 +3023,10 @@
       <c r="A15" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="4">
         <v>25</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="4">
         <v>2</v>
       </c>
       <c r="D15" s="5">
@@ -3037,10 +3040,10 @@
       <c r="A16" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="4">
         <v>27</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="4">
         <v>2</v>
       </c>
       <c r="D16" s="5">
@@ -3054,10 +3057,10 @@
       <c r="A17" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="4">
         <v>29</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="4">
         <v>3</v>
       </c>
       <c r="D17" s="5">
@@ -3071,10 +3074,10 @@
       <c r="A18" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="4">
         <v>32</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="4">
         <v>3</v>
       </c>
       <c r="D18" s="5">
@@ -3088,10 +3091,10 @@
       <c r="A19" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="4">
         <v>35</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="4">
         <v>3</v>
       </c>
       <c r="D19" s="5">
@@ -3105,10 +3108,10 @@
       <c r="A20" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="4">
         <v>38</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="4">
         <v>3</v>
       </c>
       <c r="D20" s="5">
@@ -3122,10 +3125,10 @@
       <c r="A21" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="4">
         <v>41</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="4">
         <v>3</v>
       </c>
       <c r="D21" s="5">
@@ -3139,10 +3142,10 @@
       <c r="A22" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="4">
         <v>44</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="4">
         <v>3</v>
       </c>
       <c r="D22" s="5">
@@ -3152,14 +3155,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" ht="27" spans="1:5">
+    <row r="23" ht="26.4" spans="1:5">
       <c r="A23" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="4">
         <v>47</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="4">
         <v>1</v>
       </c>
       <c r="D23" s="5">
@@ -3169,14 +3172,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" ht="27" spans="1:5">
+    <row r="24" ht="26.4" spans="1:5">
       <c r="A24" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="4">
         <v>48</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="4">
         <v>1</v>
       </c>
       <c r="D24" s="5">
@@ -3186,14 +3189,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" ht="27" spans="1:5">
+    <row r="25" ht="26.4" spans="1:5">
       <c r="A25" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="4">
         <v>49</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="4">
         <v>1</v>
       </c>
       <c r="D25" s="5">
@@ -3207,10 +3210,10 @@
       <c r="A26" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="4">
         <v>50</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="4">
         <v>1</v>
       </c>
       <c r="D26" s="5">
@@ -3224,10 +3227,10 @@
       <c r="A27" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="4">
         <v>51</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="4">
         <v>1</v>
       </c>
       <c r="D27" s="5">
@@ -3241,10 +3244,10 @@
       <c r="A28" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="4">
         <v>52</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="4">
         <v>3</v>
       </c>
       <c r="D28" s="5">
@@ -3258,10 +3261,10 @@
       <c r="A29" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="4">
         <v>55</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="4">
         <v>1</v>
       </c>
       <c r="D29" s="5">
@@ -3282,18 +3285,18 @@
   <sheetPr/>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="25.6666666666667" customWidth="1"/>
-    <col min="2" max="5" width="19.8916666666667" customWidth="1"/>
+    <col min="2" max="5" width="19.8888888888889" customWidth="1"/>
     <col min="7" max="7" width="64.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="40.5" spans="1:5">
+    <row r="1" ht="39.6" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3314,10 +3317,10 @@
       <c r="A2" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="6">
-        <v>0</v>
-      </c>
-      <c r="C2" s="6">
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
         <v>4</v>
       </c>
       <c r="D2" s="5">
@@ -3459,18 +3462,22 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="5" width="15.3333333333333" customWidth="1"/>
+    <col min="1" max="1" width="31.5277777777778" customWidth="1"/>
+    <col min="2" max="2" width="20.6296296296296" customWidth="1"/>
+    <col min="3" max="3" width="14.3055555555556" customWidth="1"/>
+    <col min="4" max="4" width="14.0277777777778" customWidth="1"/>
+    <col min="5" max="5" width="15.4907407407407" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="40.5" spans="1:5">
+    <row r="1" ht="47" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3487,7 +3494,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" ht="15" customHeight="1" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>104</v>
       </c>
@@ -3495,40 +3502,40 @@
         <v>0</v>
       </c>
       <c r="C2" s="4">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D2" s="5">
-        <v>0.0001</v>
+        <v>1</v>
       </c>
       <c r="E2" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" ht="15" customHeight="1" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="4">
-        <v>8</v>
-      </c>
-      <c r="C3" s="6">
-        <v>1</v>
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4">
+        <v>2</v>
       </c>
       <c r="D3" s="5">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="E3" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" ht="15" customHeight="1" spans="1:5">
       <c r="A4" s="3" t="s">
         <v>106</v>
       </c>
       <c r="B4" s="4">
-        <v>9</v>
-      </c>
-      <c r="C4" s="6">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4">
         <v>1</v>
       </c>
       <c r="D4" s="5">
@@ -3538,43 +3545,59 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" ht="15" customHeight="1" spans="1:5">
       <c r="A5" s="3" t="s">
         <v>107</v>
       </c>
       <c r="B5" s="4">
-        <v>10</v>
-      </c>
-      <c r="C5" s="6">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="C5" s="4">
+        <v>3</v>
       </c>
       <c r="D5" s="5">
-        <v>1</v>
+        <v>1e-6</v>
       </c>
       <c r="E5" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1" spans="1:5">
       <c r="A6" s="3" t="s">
         <v>108</v>
       </c>
       <c r="B6" s="4">
-        <v>11</v>
-      </c>
-      <c r="C6" s="6">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1</v>
       </c>
       <c r="D6" s="5">
         <v>1</v>
       </c>
       <c r="E6" s="5">
-        <v>-10000000</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" s="4">
+        <v>8</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/func/config/config.xlsx
+++ b/func/config/config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9024" activeTab="4"/>
+    <workbookView windowWidth="22368" windowHeight="9024" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="0x146" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="114">
   <si>
     <t>Signal Name</t>
   </si>
@@ -245,6 +245,18 @@
   </si>
   <si>
     <t>INS_17F_TiDiffer</t>
+  </si>
+  <si>
+    <t>WhlSpdFrntLePls</t>
+  </si>
+  <si>
+    <t>WhlSpdFrntRiPls</t>
+  </si>
+  <si>
+    <t>WhlSpdReLePls</t>
+  </si>
+  <si>
+    <t>WhlSpdReRiPls</t>
   </si>
   <si>
     <t>INS_GNSS_Time_Year</t>
@@ -356,14 +368,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="176" formatCode="[$-409]General"/>
+    <numFmt numFmtId="177" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -386,6 +399,12 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -500,6 +519,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -520,6 +545,13 @@
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -891,54 +923,51 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="54">
+  <cellStyleXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -950,167 +979,188 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="37" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="38" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="54">
+  <cellStyles count="56">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
     <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
@@ -1137,34 +1187,36 @@
     <cellStyle name="标题 3" xfId="23" builtinId="18"/>
     <cellStyle name="60% - 强调文字颜色 4" xfId="24" builtinId="44"/>
     <cellStyle name="输出" xfId="25" builtinId="21"/>
-    <cellStyle name="计算" xfId="26" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="27" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="28" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="30" builtinId="24"/>
-    <cellStyle name="汇总" xfId="31" builtinId="25"/>
-    <cellStyle name="好" xfId="32" builtinId="26"/>
-    <cellStyle name="适中" xfId="33" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="34" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="35" builtinId="29"/>
-    <cellStyle name="强调文字颜色 2 3" xfId="36"/>
-    <cellStyle name="常规 10 3 2 2 2" xfId="37"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="38" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="39" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="40" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="41" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="42" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="43" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="44" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="45" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="46" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="47" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="48" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="49" builtinId="49"/>
-    <cellStyle name="常规 2 3" xfId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="51" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="52" builtinId="52"/>
-    <cellStyle name="常规 4" xfId="53"/>
+    <cellStyle name="常规_D101_PT-CAN信号总表-20130111 2 2" xfId="26"/>
+    <cellStyle name="计算" xfId="27" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="28" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="29" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="30" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="31" builtinId="24"/>
+    <cellStyle name="常规 2 13 3 3 2" xfId="32"/>
+    <cellStyle name="汇总" xfId="33" builtinId="25"/>
+    <cellStyle name="好" xfId="34" builtinId="26"/>
+    <cellStyle name="适中" xfId="35" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="36" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="37" builtinId="29"/>
+    <cellStyle name="常规 10 3 2 2 2" xfId="38"/>
+    <cellStyle name="强调文字颜色 2 3" xfId="39"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="40" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="41" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="42" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="43" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="44" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="45" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="46" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="47" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="48" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="49" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="50" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="51" builtinId="49"/>
+    <cellStyle name="常规 2 3" xfId="52"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="53" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="54" builtinId="52"/>
+    <cellStyle name="常规 4" xfId="55"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1521,7 +1573,7 @@
       <c r="C3" s="4">
         <v>3</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="21">
         <v>1.7452e-5</v>
       </c>
       <c r="E3" s="5">
@@ -1555,7 +1607,7 @@
       <c r="C5" s="4">
         <v>3</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="21">
         <v>1.7452e-5</v>
       </c>
       <c r="E5" s="5">
@@ -1589,7 +1641,7 @@
       <c r="C7" s="4">
         <v>3</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="21">
         <v>1.7452e-5</v>
       </c>
       <c r="E7" s="5">
@@ -1657,10 +1709,10 @@
       <c r="C11" s="4">
         <v>2</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="21">
         <v>1.7452e-5</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="21">
         <v>-0.17452</v>
       </c>
     </row>
@@ -1691,10 +1743,10 @@
       <c r="C13" s="4">
         <v>2</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="21">
         <v>1.7452e-5</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="21">
         <v>-0.17452</v>
       </c>
     </row>
@@ -1725,10 +1777,10 @@
       <c r="C15" s="4">
         <v>2</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="21">
         <v>1.7452e-5</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="21">
         <v>-0.17452</v>
       </c>
     </row>
@@ -1810,10 +1862,10 @@
       <c r="C20" s="4">
         <v>3</v>
       </c>
-      <c r="D20" s="17">
+      <c r="D20" s="21">
         <v>0.0001</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E20" s="21">
         <v>-5</v>
       </c>
     </row>
@@ -1827,10 +1879,10 @@
       <c r="C21" s="4">
         <v>3</v>
       </c>
-      <c r="D21" s="17">
+      <c r="D21" s="21">
         <v>0.0001</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E21" s="21">
         <v>-5</v>
       </c>
     </row>
@@ -1844,10 +1896,10 @@
       <c r="C22" s="4">
         <v>3</v>
       </c>
-      <c r="D22" s="17">
+      <c r="D22" s="21">
         <v>0.0001</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E22" s="21">
         <v>-5</v>
       </c>
     </row>
@@ -1886,7 +1938,7 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="22" t="s">
         <v>28</v>
       </c>
       <c r="B25" s="15">
@@ -1912,10 +1964,10 @@
       <c r="C26" s="6">
         <v>3</v>
       </c>
-      <c r="D26" s="17">
+      <c r="D26" s="21">
         <v>0.001</v>
       </c>
-      <c r="E26" s="17">
+      <c r="E26" s="21">
         <v>-40</v>
       </c>
     </row>
@@ -1929,10 +1981,10 @@
       <c r="C27" s="6">
         <v>3</v>
       </c>
-      <c r="D27" s="17">
+      <c r="D27" s="21">
         <v>1.7452e-5</v>
       </c>
-      <c r="E27" s="17">
+      <c r="E27" s="21">
         <v>-4.363</v>
       </c>
     </row>
@@ -1946,10 +1998,10 @@
       <c r="C28" s="6">
         <v>3</v>
       </c>
-      <c r="D28" s="17">
+      <c r="D28" s="21">
         <v>0.001</v>
       </c>
-      <c r="E28" s="17">
+      <c r="E28" s="21">
         <v>-40</v>
       </c>
     </row>
@@ -1963,10 +2015,10 @@
       <c r="C29" s="6">
         <v>3</v>
       </c>
-      <c r="D29" s="17">
+      <c r="D29" s="21">
         <v>1.7452e-5</v>
       </c>
-      <c r="E29" s="17">
+      <c r="E29" s="21">
         <v>-4.363</v>
       </c>
     </row>
@@ -1980,10 +2032,10 @@
       <c r="C30" s="6">
         <v>3</v>
       </c>
-      <c r="D30" s="17">
+      <c r="D30" s="21">
         <v>0.001</v>
       </c>
-      <c r="E30" s="17">
+      <c r="E30" s="21">
         <v>-40</v>
       </c>
     </row>
@@ -1997,10 +2049,10 @@
       <c r="C31" s="6">
         <v>3</v>
       </c>
-      <c r="D31" s="17">
+      <c r="D31" s="21">
         <v>1.7452e-5</v>
       </c>
-      <c r="E31" s="17">
+      <c r="E31" s="21">
         <v>-4.363</v>
       </c>
     </row>
@@ -2014,10 +2066,10 @@
       <c r="C32" s="6">
         <v>3</v>
       </c>
-      <c r="D32" s="17">
+      <c r="D32" s="21">
         <v>1e-6</v>
       </c>
-      <c r="E32" s="17">
+      <c r="E32" s="21">
         <v>-1</v>
       </c>
     </row>
@@ -2031,10 +2083,10 @@
       <c r="C33" s="6">
         <v>3</v>
       </c>
-      <c r="D33" s="17">
+      <c r="D33" s="21">
         <v>1e-6</v>
       </c>
-      <c r="E33" s="17">
+      <c r="E33" s="21">
         <v>-1</v>
       </c>
     </row>
@@ -2048,10 +2100,10 @@
       <c r="C34" s="6">
         <v>3</v>
       </c>
-      <c r="D34" s="17">
+      <c r="D34" s="21">
         <v>1e-6</v>
       </c>
-      <c r="E34" s="17">
+      <c r="E34" s="21">
         <v>-1</v>
       </c>
     </row>
@@ -2065,10 +2117,10 @@
       <c r="C35" s="6">
         <v>3</v>
       </c>
-      <c r="D35" s="17">
+      <c r="D35" s="21">
         <v>1e-6</v>
       </c>
-      <c r="E35" s="17">
+      <c r="E35" s="21">
         <v>-1</v>
       </c>
     </row>
@@ -2201,10 +2253,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C2"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -2754,6 +2806,74 @@
         <v>1</v>
       </c>
       <c r="E32" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" s="18">
+        <v>69</v>
+      </c>
+      <c r="C33" s="18">
+        <v>1</v>
+      </c>
+      <c r="D33" s="19">
+        <v>1</v>
+      </c>
+      <c r="E33" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" s="18">
+        <v>70</v>
+      </c>
+      <c r="C34" s="18">
+        <v>1</v>
+      </c>
+      <c r="D34" s="19">
+        <v>1</v>
+      </c>
+      <c r="E34" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" s="18">
+        <v>71</v>
+      </c>
+      <c r="C35" s="18">
+        <v>1</v>
+      </c>
+      <c r="D35" s="19">
+        <v>1</v>
+      </c>
+      <c r="E35" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" s="18">
+        <v>72</v>
+      </c>
+      <c r="C36" s="18">
+        <v>1</v>
+      </c>
+      <c r="D36" s="19">
+        <v>1</v>
+      </c>
+      <c r="E36" s="19">
         <v>0</v>
       </c>
     </row>
@@ -2800,7 +2920,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B2" s="6">
         <v>0</v>
@@ -2817,7 +2937,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B3" s="4">
         <v>2</v>
@@ -2834,7 +2954,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B4" s="4">
         <v>3</v>
@@ -2851,7 +2971,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B5" s="4">
         <v>4</v>
@@ -2868,7 +2988,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B6" s="4">
         <v>5</v>
@@ -2885,7 +3005,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B7" s="4">
         <v>6</v>
@@ -2902,7 +3022,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B8" s="4">
         <v>7</v>
@@ -2919,7 +3039,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B9" s="4">
         <v>9</v>
@@ -2936,7 +3056,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B10" s="4">
         <v>12</v>
@@ -2953,7 +3073,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B11" s="4">
         <v>14</v>
@@ -2970,7 +3090,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B12" s="4">
         <v>17</v>
@@ -2987,7 +3107,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B13" s="4">
         <v>20</v>
@@ -3004,7 +3124,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B14" s="4">
         <v>23</v>
@@ -3021,7 +3141,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B15" s="4">
         <v>25</v>
@@ -3038,7 +3158,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B16" s="4">
         <v>27</v>
@@ -3055,7 +3175,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B17" s="4">
         <v>29</v>
@@ -3072,7 +3192,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B18" s="4">
         <v>32</v>
@@ -3089,7 +3209,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B19" s="4">
         <v>35</v>
@@ -3106,7 +3226,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B20" s="4">
         <v>38</v>
@@ -3123,7 +3243,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="3" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B21" s="4">
         <v>41</v>
@@ -3140,7 +3260,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="3" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B22" s="4">
         <v>44</v>
@@ -3157,7 +3277,7 @@
     </row>
     <row r="23" ht="26.4" spans="1:5">
       <c r="A23" s="3" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B23" s="4">
         <v>47</v>
@@ -3174,7 +3294,7 @@
     </row>
     <row r="24" ht="26.4" spans="1:5">
       <c r="A24" s="3" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B24" s="4">
         <v>48</v>
@@ -3191,7 +3311,7 @@
     </row>
     <row r="25" ht="26.4" spans="1:5">
       <c r="A25" s="3" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B25" s="4">
         <v>49</v>
@@ -3208,7 +3328,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="3" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B26" s="4">
         <v>50</v>
@@ -3225,7 +3345,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="3" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B27" s="4">
         <v>51</v>
@@ -3242,7 +3362,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="3" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B28" s="4">
         <v>52</v>
@@ -3259,7 +3379,7 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="3" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B29" s="4">
         <v>55</v>
@@ -3330,7 +3450,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3464,7 +3584,7 @@
   <sheetPr/>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -3496,7 +3616,7 @@
     </row>
     <row r="2" ht="15" customHeight="1" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B2" s="4">
         <v>0</v>
@@ -3513,7 +3633,7 @@
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B3" s="6">
         <v>1</v>
@@ -3530,7 +3650,7 @@
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B4" s="4">
         <v>3</v>
@@ -3547,7 +3667,7 @@
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B5" s="4">
         <v>4</v>
@@ -3564,7 +3684,7 @@
     </row>
     <row r="6" ht="15" customHeight="1" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B6" s="4">
         <v>7</v>
@@ -3581,7 +3701,7 @@
     </row>
     <row r="7" ht="15" customHeight="1" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B7" s="4">
         <v>8</v>

--- a/func/config/config.xlsx
+++ b/func/config/config.xlsx
@@ -4,21 +4,22 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9024" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="0x146" sheetId="1" r:id="rId1"/>
     <sheet name="0x17F" sheetId="2" r:id="rId2"/>
-    <sheet name="0x31B" sheetId="4" r:id="rId3"/>
-    <sheet name="rel" sheetId="6" r:id="rId4"/>
-    <sheet name="0x5B3" sheetId="7" r:id="rId5"/>
+    <sheet name="0x17F_old" sheetId="8" r:id="rId3"/>
+    <sheet name="0x31B" sheetId="4" r:id="rId4"/>
+    <sheet name="rel" sheetId="6" r:id="rId5"/>
+    <sheet name="0x5B3" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="114">
   <si>
     <t>Signal Name</t>
   </si>
@@ -373,10 +374,10 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="[$-409]General"/>
-    <numFmt numFmtId="177" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="177" formatCode="[$-409]General"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -399,12 +400,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -545,13 +540,6 @@
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -930,46 +918,49 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -979,112 +970,109 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1093,13 +1081,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="38" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1111,7 +1099,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1129,7 +1117,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1141,16 +1129,16 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1199,8 +1187,8 @@
     <cellStyle name="适中" xfId="35" builtinId="28"/>
     <cellStyle name="20% - 强调文字颜色 5" xfId="36" builtinId="46"/>
     <cellStyle name="强调文字颜色 1" xfId="37" builtinId="29"/>
-    <cellStyle name="常规 10 3 2 2 2" xfId="38"/>
-    <cellStyle name="强调文字颜色 2 3" xfId="39"/>
+    <cellStyle name="强调文字颜色 2 3" xfId="38"/>
+    <cellStyle name="常规 10 3 2 2 2" xfId="39"/>
     <cellStyle name="20% - 强调文字颜色 1" xfId="40" builtinId="30"/>
     <cellStyle name="40% - 强调文字颜色 1" xfId="41" builtinId="31"/>
     <cellStyle name="20% - 强调文字颜色 2" xfId="42" builtinId="34"/>
@@ -1520,11 +1508,11 @@
       <selection activeCell="C42" sqref="C2:C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="25.2222222222222" customWidth="1"/>
-    <col min="2" max="2" width="16.7777777777778" customWidth="1"/>
-    <col min="3" max="3" width="19.8888888888889" customWidth="1"/>
+    <col min="1" max="1" width="25.225" customWidth="1"/>
+    <col min="2" max="2" width="16.775" customWidth="1"/>
+    <col min="3" max="3" width="19.8916666666667" customWidth="1"/>
     <col min="4" max="4" width="18.3333333333333" customWidth="1"/>
     <col min="5" max="5" width="20.6666666666667" customWidth="1"/>
   </cols>
@@ -2056,7 +2044,7 @@
         <v>-4.363</v>
       </c>
     </row>
-    <row r="32" ht="26.4" spans="1:5">
+    <row r="32" spans="1:5">
       <c r="A32" s="13" t="s">
         <v>35</v>
       </c>
@@ -2255,17 +2243,17 @@
   <sheetPr/>
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="25.6666666666667" customWidth="1"/>
-    <col min="2" max="5" width="19.8888888888889" customWidth="1"/>
+    <col min="2" max="5" width="19.8916666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="39.6" spans="1:5">
+    <row r="1" ht="40.5" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2890,18 +2878,584 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:E32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="25.6666666666667" customWidth="1"/>
+    <col min="2" max="5" width="19.8916666666667" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="40.5" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
+        <v>3</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0.001</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="4">
+        <v>3</v>
+      </c>
+      <c r="C3" s="4">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.001</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="4">
+        <v>5</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="4">
+        <v>6</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="4">
+        <v>7</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="4">
+        <v>8</v>
+      </c>
+      <c r="C7" s="4">
+        <v>4</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1e-7</v>
+      </c>
+      <c r="E7" s="5">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="4">
+        <v>12</v>
+      </c>
+      <c r="C8" s="4">
+        <v>2</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="4">
+        <v>14</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="4">
+        <v>15</v>
+      </c>
+      <c r="C10" s="4">
+        <v>4</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1e-7</v>
+      </c>
+      <c r="E10" s="5">
+        <v>-180</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="4">
+        <v>19</v>
+      </c>
+      <c r="C11" s="4">
+        <v>2</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="4">
+        <v>21</v>
+      </c>
+      <c r="C12" s="4">
+        <v>3</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0.001</v>
+      </c>
+      <c r="E12" s="5">
+        <v>-180</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="4">
+        <v>24</v>
+      </c>
+      <c r="C13" s="4">
+        <v>2</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0.001</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="4">
+        <v>26</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="4">
+        <v>27</v>
+      </c>
+      <c r="C15" s="4">
+        <v>3</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0.001</v>
+      </c>
+      <c r="E15" s="5">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="4">
+        <v>30</v>
+      </c>
+      <c r="C16" s="4">
+        <v>2</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0.001</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="4">
+        <v>32</v>
+      </c>
+      <c r="C17" s="4">
+        <v>1</v>
+      </c>
+      <c r="D17" s="5">
+        <v>1</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="4">
+        <v>33</v>
+      </c>
+      <c r="C18" s="4">
+        <v>3</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0.001</v>
+      </c>
+      <c r="E18" s="5">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="4">
+        <v>36</v>
+      </c>
+      <c r="C19" s="4">
+        <v>2</v>
+      </c>
+      <c r="D19" s="5">
+        <v>1</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="4">
+        <v>38</v>
+      </c>
+      <c r="C20" s="4">
+        <v>1</v>
+      </c>
+      <c r="D20" s="5">
+        <v>1</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="4">
+        <v>39</v>
+      </c>
+      <c r="C21" s="4">
+        <v>2</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0.015625</v>
+      </c>
+      <c r="E21" s="5">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="4">
+        <v>41</v>
+      </c>
+      <c r="C22" s="4">
+        <v>2</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0.015625</v>
+      </c>
+      <c r="E22" s="5">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="4">
+        <v>43</v>
+      </c>
+      <c r="C23" s="4">
+        <v>2</v>
+      </c>
+      <c r="D23" s="5">
+        <v>0.015625</v>
+      </c>
+      <c r="E23" s="5">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="4">
+        <v>45</v>
+      </c>
+      <c r="C24" s="4">
+        <v>2</v>
+      </c>
+      <c r="D24" s="5">
+        <v>0.015625</v>
+      </c>
+      <c r="E24" s="5">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="4">
+        <v>47</v>
+      </c>
+      <c r="C25" s="4">
+        <v>2</v>
+      </c>
+      <c r="D25" s="5">
+        <v>0.0001</v>
+      </c>
+      <c r="E25" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" s="4">
+        <v>49</v>
+      </c>
+      <c r="C26" s="4">
+        <v>2</v>
+      </c>
+      <c r="D26" s="5">
+        <v>0.0001</v>
+      </c>
+      <c r="E26" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" s="4">
+        <v>51</v>
+      </c>
+      <c r="C27" s="4">
+        <v>2</v>
+      </c>
+      <c r="D27" s="5">
+        <v>1</v>
+      </c>
+      <c r="E27" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" s="4">
+        <v>53</v>
+      </c>
+      <c r="C28" s="4">
+        <v>4</v>
+      </c>
+      <c r="D28" s="5">
+        <v>1</v>
+      </c>
+      <c r="E28" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="6">
+        <v>57</v>
+      </c>
+      <c r="C29" s="6">
+        <v>8</v>
+      </c>
+      <c r="D29" s="5">
+        <v>0.0001</v>
+      </c>
+      <c r="E29" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="6">
+        <v>65</v>
+      </c>
+      <c r="C30" s="4">
+        <v>1</v>
+      </c>
+      <c r="D30" s="5">
+        <v>1</v>
+      </c>
+      <c r="E30" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" s="15">
+        <v>66</v>
+      </c>
+      <c r="C31" s="15">
+        <v>1</v>
+      </c>
+      <c r="D31" s="16">
+        <v>1</v>
+      </c>
+      <c r="E31" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" s="15">
+        <v>67</v>
+      </c>
+      <c r="C32" s="15">
+        <v>2</v>
+      </c>
+      <c r="D32" s="16">
+        <v>1</v>
+      </c>
+      <c r="E32" s="16">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="5" width="20.8888888888889" customWidth="1"/>
+    <col min="1" max="5" width="20.8916666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="39.6" spans="1:5">
+    <row r="1" ht="40.5" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3275,7 +3829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" ht="26.4" spans="1:5">
+    <row r="23" ht="27" spans="1:5">
       <c r="A23" s="3" t="s">
         <v>100</v>
       </c>
@@ -3292,7 +3846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" ht="26.4" spans="1:5">
+    <row r="24" ht="27" spans="1:5">
       <c r="A24" s="3" t="s">
         <v>101</v>
       </c>
@@ -3309,7 +3863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" ht="26.4" spans="1:5">
+    <row r="25" ht="27" spans="1:5">
       <c r="A25" s="3" t="s">
         <v>102</v>
       </c>
@@ -3400,7 +3954,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G9"/>
@@ -3409,14 +3963,14 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="25.6666666666667" customWidth="1"/>
-    <col min="2" max="5" width="19.8888888888889" customWidth="1"/>
+    <col min="2" max="5" width="19.8916666666667" customWidth="1"/>
     <col min="7" max="7" width="64.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="39.6" spans="1:5">
+    <row r="1" ht="40.5" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3579,7 +4133,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E7"/>
@@ -3588,13 +4142,13 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="31.5277777777778" customWidth="1"/>
-    <col min="2" max="2" width="20.6296296296296" customWidth="1"/>
-    <col min="3" max="3" width="14.3055555555556" customWidth="1"/>
-    <col min="4" max="4" width="14.0277777777778" customWidth="1"/>
-    <col min="5" max="5" width="15.4907407407407" customWidth="1"/>
+    <col min="1" max="1" width="31.525" customWidth="1"/>
+    <col min="2" max="2" width="20.6333333333333" customWidth="1"/>
+    <col min="3" max="3" width="14.3083333333333" customWidth="1"/>
+    <col min="4" max="4" width="14.025" customWidth="1"/>
+    <col min="5" max="5" width="15.4916666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="47" customHeight="1" spans="1:5">

--- a/func/config/config.xlsx
+++ b/func/config/config.xlsx
@@ -4,22 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView windowWidth="22188" windowHeight="8675" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="0x146" sheetId="1" r:id="rId1"/>
     <sheet name="0x17F" sheetId="2" r:id="rId2"/>
-    <sheet name="0x17F_old" sheetId="8" r:id="rId3"/>
-    <sheet name="0x31B" sheetId="4" r:id="rId4"/>
-    <sheet name="rel" sheetId="6" r:id="rId5"/>
-    <sheet name="0x5B3" sheetId="7" r:id="rId6"/>
+    <sheet name="0x31B" sheetId="4" r:id="rId3"/>
+    <sheet name="rel" sheetId="6" r:id="rId4"/>
+    <sheet name="0x5B3" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="119">
   <si>
     <t>Signal Name</t>
   </si>
@@ -248,6 +247,9 @@
     <t>INS_17F_TiDiffer</t>
   </si>
   <si>
+    <t>v1.8</t>
+  </si>
+  <si>
     <t>WhlSpdFrntLePls</t>
   </si>
   <si>
@@ -258,6 +260,18 @@
   </si>
   <si>
     <t>WhlSpdReRiPls</t>
+  </si>
+  <si>
+    <t>v1.9</t>
+  </si>
+  <si>
+    <t>GearPosn</t>
+  </si>
+  <si>
+    <t>VehGearPosnVld</t>
+  </si>
+  <si>
+    <t>v2.0</t>
   </si>
   <si>
     <t>INS_GNSS_Time_Year</t>
@@ -368,16 +382,16 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="6">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="177" formatCode="[$-409]General"/>
+    <numFmt numFmtId="176" formatCode="[$-409]General"/>
+    <numFmt numFmtId="177" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -410,37 +424,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -456,14 +443,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -508,16 +487,25 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -559,10 +547,42 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -598,55 +618,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -664,19 +642,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -688,19 +660,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -718,6 +678,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -730,7 +702,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -754,7 +750,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -778,6 +786,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -785,6 +799,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -809,21 +829,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -857,6 +862,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -915,295 +935,310 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="39" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="53" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="52" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="54" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="56">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="常规 4 6" xfId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="6" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="7" builtinId="39"/>
-    <cellStyle name="差" xfId="8" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="9" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="10" builtinId="40"/>
-    <cellStyle name="超链接" xfId="11" builtinId="8"/>
-    <cellStyle name="百分比" xfId="12" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
-    <cellStyle name="注释" xfId="14" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="15" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="16" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="17" builtinId="11"/>
-    <cellStyle name="标题" xfId="18" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="19" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="20" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="21" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="22" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="23" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="24" builtinId="44"/>
-    <cellStyle name="输出" xfId="25" builtinId="21"/>
-    <cellStyle name="常规_D101_PT-CAN信号总表-20130111 2 2" xfId="26"/>
-    <cellStyle name="计算" xfId="27" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="28" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="29" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="30" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="31" builtinId="24"/>
-    <cellStyle name="常规 2 13 3 3 2" xfId="32"/>
-    <cellStyle name="汇总" xfId="33" builtinId="25"/>
-    <cellStyle name="好" xfId="34" builtinId="26"/>
-    <cellStyle name="适中" xfId="35" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="36" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="37" builtinId="29"/>
-    <cellStyle name="强调文字颜色 2 3" xfId="38"/>
-    <cellStyle name="常规 10 3 2 2 2" xfId="39"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="40" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="41" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="42" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="43" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="44" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="45" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="46" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="47" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="48" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="49" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="50" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="51" builtinId="49"/>
-    <cellStyle name="常规 2 3" xfId="52"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="53" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="54" builtinId="52"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 4 6" xfId="49"/>
+    <cellStyle name="常规_D101_PT-CAN信号总表-20130111 2 2" xfId="50"/>
+    <cellStyle name="常规 2 13 3 3 2" xfId="51"/>
+    <cellStyle name="强调文字颜色 2 3" xfId="52"/>
+    <cellStyle name="常规 10 3 2 2 2" xfId="53"/>
+    <cellStyle name="常规 2 3" xfId="54"/>
     <cellStyle name="常规 4" xfId="55"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1508,11 +1543,11 @@
       <selection activeCell="C42" sqref="C2:C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="25.225" customWidth="1"/>
-    <col min="2" max="2" width="16.775" customWidth="1"/>
-    <col min="3" max="3" width="19.8916666666667" customWidth="1"/>
+    <col min="1" max="1" width="25.2222222222222" customWidth="1"/>
+    <col min="2" max="2" width="16.7777777777778" customWidth="1"/>
+    <col min="3" max="3" width="19.8888888888889" customWidth="1"/>
     <col min="4" max="4" width="18.3333333333333" customWidth="1"/>
     <col min="5" max="5" width="20.6666666666667" customWidth="1"/>
   </cols>
@@ -1561,7 +1596,7 @@
       <c r="C3" s="4">
         <v>3</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="26">
         <v>1.7452e-5</v>
       </c>
       <c r="E3" s="5">
@@ -1595,7 +1630,7 @@
       <c r="C5" s="4">
         <v>3</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="26">
         <v>1.7452e-5</v>
       </c>
       <c r="E5" s="5">
@@ -1629,7 +1664,7 @@
       <c r="C7" s="4">
         <v>3</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="26">
         <v>1.7452e-5</v>
       </c>
       <c r="E7" s="5">
@@ -1697,10 +1732,10 @@
       <c r="C11" s="4">
         <v>2</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="26">
         <v>1.7452e-5</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="26">
         <v>-0.17452</v>
       </c>
     </row>
@@ -1731,10 +1766,10 @@
       <c r="C13" s="4">
         <v>2</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="26">
         <v>1.7452e-5</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="26">
         <v>-0.17452</v>
       </c>
     </row>
@@ -1765,10 +1800,10 @@
       <c r="C15" s="4">
         <v>2</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="26">
         <v>1.7452e-5</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="26">
         <v>-0.17452</v>
       </c>
     </row>
@@ -1850,10 +1885,10 @@
       <c r="C20" s="4">
         <v>3</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D20" s="26">
         <v>0.0001</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E20" s="26">
         <v>-5</v>
       </c>
     </row>
@@ -1867,10 +1902,10 @@
       <c r="C21" s="4">
         <v>3</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D21" s="26">
         <v>0.0001</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E21" s="26">
         <v>-5</v>
       </c>
     </row>
@@ -1884,10 +1919,10 @@
       <c r="C22" s="4">
         <v>3</v>
       </c>
-      <c r="D22" s="21">
+      <c r="D22" s="26">
         <v>0.0001</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22" s="26">
         <v>-5</v>
       </c>
     </row>
@@ -1926,7 +1961,7 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="27" t="s">
         <v>28</v>
       </c>
       <c r="B25" s="15">
@@ -1952,10 +1987,10 @@
       <c r="C26" s="6">
         <v>3</v>
       </c>
-      <c r="D26" s="21">
+      <c r="D26" s="26">
         <v>0.001</v>
       </c>
-      <c r="E26" s="21">
+      <c r="E26" s="26">
         <v>-40</v>
       </c>
     </row>
@@ -1969,10 +2004,10 @@
       <c r="C27" s="6">
         <v>3</v>
       </c>
-      <c r="D27" s="21">
+      <c r="D27" s="26">
         <v>1.7452e-5</v>
       </c>
-      <c r="E27" s="21">
+      <c r="E27" s="26">
         <v>-4.363</v>
       </c>
     </row>
@@ -1986,10 +2021,10 @@
       <c r="C28" s="6">
         <v>3</v>
       </c>
-      <c r="D28" s="21">
+      <c r="D28" s="26">
         <v>0.001</v>
       </c>
-      <c r="E28" s="21">
+      <c r="E28" s="26">
         <v>-40</v>
       </c>
     </row>
@@ -2003,10 +2038,10 @@
       <c r="C29" s="6">
         <v>3</v>
       </c>
-      <c r="D29" s="21">
+      <c r="D29" s="26">
         <v>1.7452e-5</v>
       </c>
-      <c r="E29" s="21">
+      <c r="E29" s="26">
         <v>-4.363</v>
       </c>
     </row>
@@ -2020,10 +2055,10 @@
       <c r="C30" s="6">
         <v>3</v>
       </c>
-      <c r="D30" s="21">
+      <c r="D30" s="26">
         <v>0.001</v>
       </c>
-      <c r="E30" s="21">
+      <c r="E30" s="26">
         <v>-40</v>
       </c>
     </row>
@@ -2037,14 +2072,14 @@
       <c r="C31" s="6">
         <v>3</v>
       </c>
-      <c r="D31" s="21">
+      <c r="D31" s="26">
         <v>1.7452e-5</v>
       </c>
-      <c r="E31" s="21">
+      <c r="E31" s="26">
         <v>-4.363</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" ht="26.4" spans="1:5">
       <c r="A32" s="13" t="s">
         <v>35</v>
       </c>
@@ -2054,10 +2089,10 @@
       <c r="C32" s="6">
         <v>3</v>
       </c>
-      <c r="D32" s="21">
+      <c r="D32" s="26">
         <v>1e-6</v>
       </c>
-      <c r="E32" s="21">
+      <c r="E32" s="26">
         <v>-1</v>
       </c>
     </row>
@@ -2071,10 +2106,10 @@
       <c r="C33" s="6">
         <v>3</v>
       </c>
-      <c r="D33" s="21">
+      <c r="D33" s="26">
         <v>1e-6</v>
       </c>
-      <c r="E33" s="21">
+      <c r="E33" s="26">
         <v>-1</v>
       </c>
     </row>
@@ -2088,10 +2123,10 @@
       <c r="C34" s="6">
         <v>3</v>
       </c>
-      <c r="D34" s="21">
+      <c r="D34" s="26">
         <v>1e-6</v>
       </c>
-      <c r="E34" s="21">
+      <c r="E34" s="26">
         <v>-1</v>
       </c>
     </row>
@@ -2105,10 +2140,10 @@
       <c r="C35" s="6">
         <v>3</v>
       </c>
-      <c r="D35" s="21">
+      <c r="D35" s="26">
         <v>1e-6</v>
       </c>
-      <c r="E35" s="21">
+      <c r="E35" s="26">
         <v>-1</v>
       </c>
     </row>
@@ -2241,19 +2276,19 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="25.6666666666667" customWidth="1"/>
-    <col min="2" max="5" width="19.8916666666667" customWidth="1"/>
+    <col min="2" max="5" width="19.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="40.5" spans="1:5">
+    <row r="1" ht="39.6" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2780,7 +2815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:6">
       <c r="A32" s="14" t="s">
         <v>74</v>
       </c>
@@ -2796,73 +2831,116 @@
       <c r="E32" s="16">
         <v>0</v>
       </c>
+      <c r="F32" s="17" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="B33" s="18">
+      <c r="A33" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" s="19">
         <v>69</v>
       </c>
-      <c r="C33" s="18">
-        <v>1</v>
-      </c>
-      <c r="D33" s="19">
-        <v>1</v>
-      </c>
-      <c r="E33" s="19">
+      <c r="C33" s="19">
+        <v>1</v>
+      </c>
+      <c r="D33" s="20">
+        <v>1</v>
+      </c>
+      <c r="E33" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="B34" s="18">
+      <c r="A34" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" s="19">
         <v>70</v>
       </c>
-      <c r="C34" s="18">
-        <v>1</v>
-      </c>
-      <c r="D34" s="19">
-        <v>1</v>
-      </c>
-      <c r="E34" s="19">
+      <c r="C34" s="19">
+        <v>1</v>
+      </c>
+      <c r="D34" s="20">
+        <v>1</v>
+      </c>
+      <c r="E34" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B35" s="18">
+      <c r="A35" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B35" s="19">
         <v>71</v>
       </c>
-      <c r="C35" s="18">
-        <v>1</v>
-      </c>
-      <c r="D35" s="19">
-        <v>1</v>
-      </c>
-      <c r="E35" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="B36" s="18">
+      <c r="C35" s="19">
+        <v>1</v>
+      </c>
+      <c r="D35" s="20">
+        <v>1</v>
+      </c>
+      <c r="E35" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B36" s="19">
         <v>72</v>
       </c>
-      <c r="C36" s="18">
-        <v>1</v>
-      </c>
-      <c r="D36" s="19">
-        <v>1</v>
-      </c>
-      <c r="E36" s="19">
-        <v>0</v>
+      <c r="C36" s="19">
+        <v>1</v>
+      </c>
+      <c r="D36" s="20">
+        <v>1</v>
+      </c>
+      <c r="E36" s="20">
+        <v>0</v>
+      </c>
+      <c r="F36" s="17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B37" s="23">
+        <v>73</v>
+      </c>
+      <c r="C37" s="23">
+        <v>1</v>
+      </c>
+      <c r="D37" s="24">
+        <v>1</v>
+      </c>
+      <c r="E37" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="B38" s="23">
+        <v>74</v>
+      </c>
+      <c r="C38" s="23">
+        <v>1</v>
+      </c>
+      <c r="D38" s="24">
+        <v>1</v>
+      </c>
+      <c r="E38" s="24">
+        <v>0</v>
+      </c>
+      <c r="F38" s="17" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2878,584 +2956,18 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E32"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
-  <cols>
-    <col min="1" max="1" width="25.6666666666667" customWidth="1"/>
-    <col min="2" max="5" width="19.8916666666667" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="40.5" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="4">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4">
-        <v>3</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0.001</v>
-      </c>
-      <c r="E2" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="4">
-        <v>3</v>
-      </c>
-      <c r="C3" s="4">
-        <v>2</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0.001</v>
-      </c>
-      <c r="E3" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="4">
-        <v>5</v>
-      </c>
-      <c r="C4" s="4">
-        <v>1</v>
-      </c>
-      <c r="D4" s="5">
-        <v>1</v>
-      </c>
-      <c r="E4" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="4">
-        <v>6</v>
-      </c>
-      <c r="C5" s="4">
-        <v>1</v>
-      </c>
-      <c r="D5" s="5">
-        <v>1</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="4">
-        <v>7</v>
-      </c>
-      <c r="C6" s="4">
-        <v>1</v>
-      </c>
-      <c r="D6" s="5">
-        <v>1</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="4">
-        <v>8</v>
-      </c>
-      <c r="C7" s="4">
-        <v>4</v>
-      </c>
-      <c r="D7" s="5">
-        <v>1e-7</v>
-      </c>
-      <c r="E7" s="5">
-        <v>-90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="4">
-        <v>12</v>
-      </c>
-      <c r="C8" s="4">
-        <v>2</v>
-      </c>
-      <c r="D8" s="5">
-        <v>1</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="4">
-        <v>14</v>
-      </c>
-      <c r="C9" s="4">
-        <v>1</v>
-      </c>
-      <c r="D9" s="5">
-        <v>1</v>
-      </c>
-      <c r="E9" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" s="4">
-        <v>15</v>
-      </c>
-      <c r="C10" s="4">
-        <v>4</v>
-      </c>
-      <c r="D10" s="5">
-        <v>1e-7</v>
-      </c>
-      <c r="E10" s="5">
-        <v>-180</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="4">
-        <v>19</v>
-      </c>
-      <c r="C11" s="4">
-        <v>2</v>
-      </c>
-      <c r="D11" s="5">
-        <v>1</v>
-      </c>
-      <c r="E11" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" s="4">
-        <v>21</v>
-      </c>
-      <c r="C12" s="4">
-        <v>3</v>
-      </c>
-      <c r="D12" s="5">
-        <v>0.001</v>
-      </c>
-      <c r="E12" s="5">
-        <v>-180</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" s="4">
-        <v>24</v>
-      </c>
-      <c r="C13" s="4">
-        <v>2</v>
-      </c>
-      <c r="D13" s="5">
-        <v>0.001</v>
-      </c>
-      <c r="E13" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="4">
-        <v>26</v>
-      </c>
-      <c r="C14" s="4">
-        <v>1</v>
-      </c>
-      <c r="D14" s="5">
-        <v>1</v>
-      </c>
-      <c r="E14" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B15" s="4">
-        <v>27</v>
-      </c>
-      <c r="C15" s="4">
-        <v>3</v>
-      </c>
-      <c r="D15" s="5">
-        <v>0.001</v>
-      </c>
-      <c r="E15" s="5">
-        <v>-90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" s="4">
-        <v>30</v>
-      </c>
-      <c r="C16" s="4">
-        <v>2</v>
-      </c>
-      <c r="D16" s="5">
-        <v>0.001</v>
-      </c>
-      <c r="E16" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B17" s="4">
-        <v>32</v>
-      </c>
-      <c r="C17" s="4">
-        <v>1</v>
-      </c>
-      <c r="D17" s="5">
-        <v>1</v>
-      </c>
-      <c r="E17" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B18" s="4">
-        <v>33</v>
-      </c>
-      <c r="C18" s="4">
-        <v>3</v>
-      </c>
-      <c r="D18" s="5">
-        <v>0.001</v>
-      </c>
-      <c r="E18" s="5">
-        <v>-1000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B19" s="4">
-        <v>36</v>
-      </c>
-      <c r="C19" s="4">
-        <v>2</v>
-      </c>
-      <c r="D19" s="5">
-        <v>1</v>
-      </c>
-      <c r="E19" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" s="4">
-        <v>38</v>
-      </c>
-      <c r="C20" s="4">
-        <v>1</v>
-      </c>
-      <c r="D20" s="5">
-        <v>1</v>
-      </c>
-      <c r="E20" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B21" s="4">
-        <v>39</v>
-      </c>
-      <c r="C21" s="4">
-        <v>2</v>
-      </c>
-      <c r="D21" s="5">
-        <v>0.015625</v>
-      </c>
-      <c r="E21" s="5">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B22" s="4">
-        <v>41</v>
-      </c>
-      <c r="C22" s="4">
-        <v>2</v>
-      </c>
-      <c r="D22" s="5">
-        <v>0.015625</v>
-      </c>
-      <c r="E22" s="5">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B23" s="4">
-        <v>43</v>
-      </c>
-      <c r="C23" s="4">
-        <v>2</v>
-      </c>
-      <c r="D23" s="5">
-        <v>0.015625</v>
-      </c>
-      <c r="E23" s="5">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="B24" s="4">
-        <v>45</v>
-      </c>
-      <c r="C24" s="4">
-        <v>2</v>
-      </c>
-      <c r="D24" s="5">
-        <v>0.015625</v>
-      </c>
-      <c r="E24" s="5">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="B25" s="4">
-        <v>47</v>
-      </c>
-      <c r="C25" s="4">
-        <v>2</v>
-      </c>
-      <c r="D25" s="5">
-        <v>0.0001</v>
-      </c>
-      <c r="E25" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="B26" s="4">
-        <v>49</v>
-      </c>
-      <c r="C26" s="4">
-        <v>2</v>
-      </c>
-      <c r="D26" s="5">
-        <v>0.0001</v>
-      </c>
-      <c r="E26" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B27" s="4">
-        <v>51</v>
-      </c>
-      <c r="C27" s="4">
-        <v>2</v>
-      </c>
-      <c r="D27" s="5">
-        <v>1</v>
-      </c>
-      <c r="E27" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B28" s="4">
-        <v>53</v>
-      </c>
-      <c r="C28" s="4">
-        <v>4</v>
-      </c>
-      <c r="D28" s="5">
-        <v>1</v>
-      </c>
-      <c r="E28" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" s="6">
-        <v>57</v>
-      </c>
-      <c r="C29" s="6">
-        <v>8</v>
-      </c>
-      <c r="D29" s="5">
-        <v>0.0001</v>
-      </c>
-      <c r="E29" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" s="6">
-        <v>65</v>
-      </c>
-      <c r="C30" s="4">
-        <v>1</v>
-      </c>
-      <c r="D30" s="5">
-        <v>1</v>
-      </c>
-      <c r="E30" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="B31" s="15">
-        <v>66</v>
-      </c>
-      <c r="C31" s="15">
-        <v>1</v>
-      </c>
-      <c r="D31" s="16">
-        <v>1</v>
-      </c>
-      <c r="E31" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B32" s="15">
-        <v>67</v>
-      </c>
-      <c r="C32" s="15">
-        <v>2</v>
-      </c>
-      <c r="D32" s="16">
-        <v>1</v>
-      </c>
-      <c r="E32" s="16">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="5" width="20.8916666666667" customWidth="1"/>
+    <col min="1" max="5" width="20.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="40.5" spans="1:5">
+    <row r="1" ht="39.6" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3474,7 +2986,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B2" s="6">
         <v>0</v>
@@ -3491,7 +3003,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B3" s="4">
         <v>2</v>
@@ -3508,7 +3020,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B4" s="4">
         <v>3</v>
@@ -3525,7 +3037,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B5" s="4">
         <v>4</v>
@@ -3542,7 +3054,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B6" s="4">
         <v>5</v>
@@ -3559,7 +3071,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B7" s="4">
         <v>6</v>
@@ -3576,7 +3088,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B8" s="4">
         <v>7</v>
@@ -3593,7 +3105,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B9" s="4">
         <v>9</v>
@@ -3610,7 +3122,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B10" s="4">
         <v>12</v>
@@ -3627,7 +3139,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B11" s="4">
         <v>14</v>
@@ -3644,7 +3156,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B12" s="4">
         <v>17</v>
@@ -3661,7 +3173,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B13" s="4">
         <v>20</v>
@@ -3678,7 +3190,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B14" s="4">
         <v>23</v>
@@ -3695,7 +3207,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B15" s="4">
         <v>25</v>
@@ -3712,7 +3224,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B16" s="4">
         <v>27</v>
@@ -3729,7 +3241,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B17" s="4">
         <v>29</v>
@@ -3746,7 +3258,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B18" s="4">
         <v>32</v>
@@ -3763,7 +3275,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B19" s="4">
         <v>35</v>
@@ -3780,7 +3292,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B20" s="4">
         <v>38</v>
@@ -3797,7 +3309,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="3" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B21" s="4">
         <v>41</v>
@@ -3814,7 +3326,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="3" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B22" s="4">
         <v>44</v>
@@ -3829,9 +3341,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" ht="27" spans="1:5">
+    <row r="23" ht="26.4" spans="1:5">
       <c r="A23" s="3" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B23" s="4">
         <v>47</v>
@@ -3846,9 +3358,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" ht="27" spans="1:5">
+    <row r="24" ht="26.4" spans="1:5">
       <c r="A24" s="3" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B24" s="4">
         <v>48</v>
@@ -3863,9 +3375,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" ht="27" spans="1:5">
+    <row r="25" ht="26.4" spans="1:5">
       <c r="A25" s="3" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B25" s="4">
         <v>49</v>
@@ -3882,7 +3394,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="3" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B26" s="4">
         <v>50</v>
@@ -3899,7 +3411,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="3" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B27" s="4">
         <v>51</v>
@@ -3916,7 +3428,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="3" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B28" s="4">
         <v>52</v>
@@ -3933,7 +3445,7 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="3" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B29" s="4">
         <v>55</v>
@@ -3954,7 +3466,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G9"/>
@@ -3963,14 +3475,14 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="25.6666666666667" customWidth="1"/>
-    <col min="2" max="5" width="19.8916666666667" customWidth="1"/>
+    <col min="2" max="5" width="19.8888888888889" customWidth="1"/>
     <col min="7" max="7" width="64.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="40.5" spans="1:5">
+    <row r="1" ht="39.6" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4004,7 +3516,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4133,7 +3645,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E7"/>
@@ -4142,13 +3654,13 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="31.525" customWidth="1"/>
-    <col min="2" max="2" width="20.6333333333333" customWidth="1"/>
-    <col min="3" max="3" width="14.3083333333333" customWidth="1"/>
-    <col min="4" max="4" width="14.025" customWidth="1"/>
-    <col min="5" max="5" width="15.4916666666667" customWidth="1"/>
+    <col min="1" max="1" width="31.5277777777778" customWidth="1"/>
+    <col min="2" max="2" width="20.6296296296296" customWidth="1"/>
+    <col min="3" max="3" width="14.3055555555556" customWidth="1"/>
+    <col min="4" max="4" width="14.0277777777778" customWidth="1"/>
+    <col min="5" max="5" width="15.4907407407407" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="47" customHeight="1" spans="1:5">
@@ -4170,7 +3682,7 @@
     </row>
     <row r="2" ht="15" customHeight="1" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B2" s="4">
         <v>0</v>
@@ -4187,7 +3699,7 @@
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B3" s="6">
         <v>1</v>
@@ -4204,7 +3716,7 @@
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B4" s="4">
         <v>3</v>
@@ -4221,7 +3733,7 @@
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B5" s="4">
         <v>4</v>
@@ -4238,7 +3750,7 @@
     </row>
     <row r="6" ht="15" customHeight="1" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B6" s="4">
         <v>7</v>
@@ -4255,7 +3767,7 @@
     </row>
     <row r="7" ht="15" customHeight="1" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B7" s="4">
         <v>8</v>

--- a/func/config/config.xlsx
+++ b/func/config/config.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="120">
   <si>
     <t>Signal Name</t>
   </si>
@@ -215,6 +215,9 @@
   </si>
   <si>
     <t>INS_Vehicle_Height_Err</t>
+  </si>
+  <si>
+    <t>INS_GNSS_Mode</t>
   </si>
   <si>
     <t>FL_wheel_vel</t>
@@ -391,7 +394,7 @@
     <numFmt numFmtId="176" formatCode="[$-409]General"/>
     <numFmt numFmtId="177" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -414,12 +417,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -950,154 +947,154 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1162,18 +1159,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1596,7 +1581,7 @@
       <c r="C3" s="4">
         <v>3</v>
       </c>
-      <c r="D3" s="26">
+      <c r="D3" s="22">
         <v>1.7452e-5</v>
       </c>
       <c r="E3" s="5">
@@ -1630,7 +1615,7 @@
       <c r="C5" s="4">
         <v>3</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="22">
         <v>1.7452e-5</v>
       </c>
       <c r="E5" s="5">
@@ -1664,7 +1649,7 @@
       <c r="C7" s="4">
         <v>3</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D7" s="22">
         <v>1.7452e-5</v>
       </c>
       <c r="E7" s="5">
@@ -1732,10 +1717,10 @@
       <c r="C11" s="4">
         <v>2</v>
       </c>
-      <c r="D11" s="26">
+      <c r="D11" s="22">
         <v>1.7452e-5</v>
       </c>
-      <c r="E11" s="26">
+      <c r="E11" s="22">
         <v>-0.17452</v>
       </c>
     </row>
@@ -1766,10 +1751,10 @@
       <c r="C13" s="4">
         <v>2</v>
       </c>
-      <c r="D13" s="26">
+      <c r="D13" s="22">
         <v>1.7452e-5</v>
       </c>
-      <c r="E13" s="26">
+      <c r="E13" s="22">
         <v>-0.17452</v>
       </c>
     </row>
@@ -1800,10 +1785,10 @@
       <c r="C15" s="4">
         <v>2</v>
       </c>
-      <c r="D15" s="26">
+      <c r="D15" s="22">
         <v>1.7452e-5</v>
       </c>
-      <c r="E15" s="26">
+      <c r="E15" s="22">
         <v>-0.17452</v>
       </c>
     </row>
@@ -1885,10 +1870,10 @@
       <c r="C20" s="4">
         <v>3</v>
       </c>
-      <c r="D20" s="26">
+      <c r="D20" s="22">
         <v>0.0001</v>
       </c>
-      <c r="E20" s="26">
+      <c r="E20" s="22">
         <v>-5</v>
       </c>
     </row>
@@ -1902,10 +1887,10 @@
       <c r="C21" s="4">
         <v>3</v>
       </c>
-      <c r="D21" s="26">
+      <c r="D21" s="22">
         <v>0.0001</v>
       </c>
-      <c r="E21" s="26">
+      <c r="E21" s="22">
         <v>-5</v>
       </c>
     </row>
@@ -1919,10 +1904,10 @@
       <c r="C22" s="4">
         <v>3</v>
       </c>
-      <c r="D22" s="26">
+      <c r="D22" s="22">
         <v>0.0001</v>
       </c>
-      <c r="E22" s="26">
+      <c r="E22" s="22">
         <v>-5</v>
       </c>
     </row>
@@ -1961,7 +1946,7 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="27" t="s">
+      <c r="A25" s="23" t="s">
         <v>28</v>
       </c>
       <c r="B25" s="15">
@@ -1987,10 +1972,10 @@
       <c r="C26" s="6">
         <v>3</v>
       </c>
-      <c r="D26" s="26">
+      <c r="D26" s="22">
         <v>0.001</v>
       </c>
-      <c r="E26" s="26">
+      <c r="E26" s="22">
         <v>-40</v>
       </c>
     </row>
@@ -2004,10 +1989,10 @@
       <c r="C27" s="6">
         <v>3</v>
       </c>
-      <c r="D27" s="26">
+      <c r="D27" s="22">
         <v>1.7452e-5</v>
       </c>
-      <c r="E27" s="26">
+      <c r="E27" s="22">
         <v>-4.363</v>
       </c>
     </row>
@@ -2021,10 +2006,10 @@
       <c r="C28" s="6">
         <v>3</v>
       </c>
-      <c r="D28" s="26">
+      <c r="D28" s="22">
         <v>0.001</v>
       </c>
-      <c r="E28" s="26">
+      <c r="E28" s="22">
         <v>-40</v>
       </c>
     </row>
@@ -2038,10 +2023,10 @@
       <c r="C29" s="6">
         <v>3</v>
       </c>
-      <c r="D29" s="26">
+      <c r="D29" s="22">
         <v>1.7452e-5</v>
       </c>
-      <c r="E29" s="26">
+      <c r="E29" s="22">
         <v>-4.363</v>
       </c>
     </row>
@@ -2055,10 +2040,10 @@
       <c r="C30" s="6">
         <v>3</v>
       </c>
-      <c r="D30" s="26">
+      <c r="D30" s="22">
         <v>0.001</v>
       </c>
-      <c r="E30" s="26">
+      <c r="E30" s="22">
         <v>-40</v>
       </c>
     </row>
@@ -2072,10 +2057,10 @@
       <c r="C31" s="6">
         <v>3</v>
       </c>
-      <c r="D31" s="26">
+      <c r="D31" s="22">
         <v>1.7452e-5</v>
       </c>
-      <c r="E31" s="26">
+      <c r="E31" s="22">
         <v>-4.363</v>
       </c>
     </row>
@@ -2089,10 +2074,10 @@
       <c r="C32" s="6">
         <v>3</v>
       </c>
-      <c r="D32" s="26">
+      <c r="D32" s="22">
         <v>1e-6</v>
       </c>
-      <c r="E32" s="26">
+      <c r="E32" s="22">
         <v>-1</v>
       </c>
     </row>
@@ -2106,10 +2091,10 @@
       <c r="C33" s="6">
         <v>3</v>
       </c>
-      <c r="D33" s="26">
+      <c r="D33" s="22">
         <v>1e-6</v>
       </c>
-      <c r="E33" s="26">
+      <c r="E33" s="22">
         <v>-1</v>
       </c>
     </row>
@@ -2123,10 +2108,10 @@
       <c r="C34" s="6">
         <v>3</v>
       </c>
-      <c r="D34" s="26">
+      <c r="D34" s="22">
         <v>1e-6</v>
       </c>
-      <c r="E34" s="26">
+      <c r="E34" s="22">
         <v>-1</v>
       </c>
     </row>
@@ -2140,10 +2125,10 @@
       <c r="C35" s="6">
         <v>3</v>
       </c>
-      <c r="D35" s="26">
+      <c r="D35" s="22">
         <v>1e-6</v>
       </c>
-      <c r="E35" s="26">
+      <c r="E35" s="22">
         <v>-1</v>
       </c>
     </row>
@@ -2278,8 +2263,8 @@
   <sheetPr/>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -2613,7 +2598,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="B20" s="4">
         <v>38</v>
@@ -2630,7 +2615,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B21" s="4">
         <v>39</v>
@@ -2647,7 +2632,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B22" s="4">
         <v>41</v>
@@ -2664,7 +2649,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B23" s="4">
         <v>43</v>
@@ -2681,7 +2666,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B24" s="4">
         <v>45</v>
@@ -2698,7 +2683,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B25" s="4">
         <v>47</v>
@@ -2715,7 +2700,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B26" s="4">
         <v>49</v>
@@ -2732,7 +2717,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B27" s="4">
         <v>51</v>
@@ -2749,7 +2734,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B28" s="4">
         <v>53</v>
@@ -2800,7 +2785,7 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="14" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B31" s="15">
         <v>66</v>
@@ -2817,7 +2802,7 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B32" s="15">
         <v>67</v>
@@ -2832,12 +2817,12 @@
         <v>0</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B33" s="19">
         <v>69</v>
@@ -2854,7 +2839,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="21" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B34" s="19">
         <v>70</v>
@@ -2871,7 +2856,7 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B35" s="19">
         <v>71</v>
@@ -2888,7 +2873,7 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="21" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B36" s="19">
         <v>72</v>
@@ -2903,44 +2888,44 @@
         <v>0</v>
       </c>
       <c r="F36" s="17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="B37" s="23">
+      <c r="A37" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B37" s="19">
         <v>73</v>
       </c>
-      <c r="C37" s="23">
-        <v>1</v>
-      </c>
-      <c r="D37" s="24">
-        <v>1</v>
-      </c>
-      <c r="E37" s="24">
+      <c r="C37" s="19">
+        <v>1</v>
+      </c>
+      <c r="D37" s="20">
+        <v>1</v>
+      </c>
+      <c r="E37" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="B38" s="23">
+      <c r="A38" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="B38" s="19">
         <v>74</v>
       </c>
-      <c r="C38" s="23">
-        <v>1</v>
-      </c>
-      <c r="D38" s="24">
-        <v>1</v>
-      </c>
-      <c r="E38" s="24">
+      <c r="C38" s="19">
+        <v>1</v>
+      </c>
+      <c r="D38" s="20">
+        <v>1</v>
+      </c>
+      <c r="E38" s="20">
         <v>0</v>
       </c>
       <c r="F38" s="17" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2986,7 +2971,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B2" s="6">
         <v>0</v>
@@ -3003,7 +2988,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B3" s="4">
         <v>2</v>
@@ -3020,7 +3005,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B4" s="4">
         <v>3</v>
@@ -3037,7 +3022,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B5" s="4">
         <v>4</v>
@@ -3054,7 +3039,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B6" s="4">
         <v>5</v>
@@ -3071,7 +3056,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B7" s="4">
         <v>6</v>
@@ -3088,7 +3073,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B8" s="4">
         <v>7</v>
@@ -3105,7 +3090,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B9" s="4">
         <v>9</v>
@@ -3122,7 +3107,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B10" s="4">
         <v>12</v>
@@ -3139,7 +3124,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B11" s="4">
         <v>14</v>
@@ -3156,7 +3141,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B12" s="4">
         <v>17</v>
@@ -3173,7 +3158,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B13" s="4">
         <v>20</v>
@@ -3190,7 +3175,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B14" s="4">
         <v>23</v>
@@ -3207,7 +3192,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B15" s="4">
         <v>25</v>
@@ -3224,7 +3209,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B16" s="4">
         <v>27</v>
@@ -3241,7 +3226,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B17" s="4">
         <v>29</v>
@@ -3258,7 +3243,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B18" s="4">
         <v>32</v>
@@ -3275,7 +3260,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B19" s="4">
         <v>35</v>
@@ -3292,7 +3277,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B20" s="4">
         <v>38</v>
@@ -3309,7 +3294,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B21" s="4">
         <v>41</v>
@@ -3326,7 +3311,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B22" s="4">
         <v>44</v>
@@ -3343,7 +3328,7 @@
     </row>
     <row r="23" ht="26.4" spans="1:5">
       <c r="A23" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B23" s="4">
         <v>47</v>
@@ -3360,7 +3345,7 @@
     </row>
     <row r="24" ht="26.4" spans="1:5">
       <c r="A24" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B24" s="4">
         <v>48</v>
@@ -3377,7 +3362,7 @@
     </row>
     <row r="25" ht="26.4" spans="1:5">
       <c r="A25" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B25" s="4">
         <v>49</v>
@@ -3394,7 +3379,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B26" s="4">
         <v>50</v>
@@ -3411,7 +3396,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B27" s="4">
         <v>51</v>
@@ -3428,7 +3413,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B28" s="4">
         <v>52</v>
@@ -3445,7 +3430,7 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B29" s="4">
         <v>55</v>
@@ -3501,7 +3486,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B2" s="4">
         <v>0</v>
@@ -3516,7 +3501,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3682,7 +3667,7 @@
     </row>
     <row r="2" ht="15" customHeight="1" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B2" s="4">
         <v>0</v>
@@ -3699,7 +3684,7 @@
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B3" s="6">
         <v>1</v>
@@ -3716,7 +3701,7 @@
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B4" s="4">
         <v>3</v>
@@ -3733,7 +3718,7 @@
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B5" s="4">
         <v>4</v>
@@ -3750,7 +3735,7 @@
     </row>
     <row r="6" ht="15" customHeight="1" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B6" s="4">
         <v>7</v>
@@ -3767,7 +3752,7 @@
     </row>
     <row r="7" ht="15" customHeight="1" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B7" s="4">
         <v>8</v>

--- a/func/config/config.xlsx
+++ b/func/config/config.xlsx
@@ -4,158 +4,28 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="8675" activeTab="1"/>
+    <workbookView windowWidth="22188" windowHeight="8675" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="0x146" sheetId="1" r:id="rId1"/>
-    <sheet name="0x17F" sheetId="2" r:id="rId2"/>
+    <sheet name="0x17F" sheetId="2" r:id="rId1"/>
+    <sheet name="0x146" sheetId="1" r:id="rId2"/>
     <sheet name="0x31B" sheetId="4" r:id="rId3"/>
-    <sheet name="rel" sheetId="6" r:id="rId4"/>
-    <sheet name="0x5B3" sheetId="7" r:id="rId5"/>
+    <sheet name="0x5B3" sheetId="7" r:id="rId4"/>
+    <sheet name="0x5B8" sheetId="9" r:id="rId5"/>
+    <sheet name="0x271" sheetId="8" r:id="rId6"/>
+    <sheet name="REL" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="139">
   <si>
     <t>Signal Name</t>
   </si>
   <si>
     <t>Signal Start Byte</t>
-  </si>
-  <si>
-    <t>signal Length (Btye)</t>
-  </si>
-  <si>
-    <t>Factor</t>
-  </si>
-  <si>
-    <t>Offset</t>
-  </si>
-  <si>
-    <t>INS_Vehicle_X_Acc</t>
-  </si>
-  <si>
-    <t>INS_Vehicle_X_Rate</t>
-  </si>
-  <si>
-    <t>INS_Vehicle_Y_Acc</t>
-  </si>
-  <si>
-    <t>INS_Vehicle_Y_Rate</t>
-  </si>
-  <si>
-    <t>INS_Vehicle_Z_Acc</t>
-  </si>
-  <si>
-    <t>INS_Vehicle_Z_Rate</t>
-  </si>
-  <si>
-    <t>INS_IMU_Time</t>
-  </si>
-  <si>
-    <t>INS_IMU_Valid</t>
-  </si>
-  <si>
-    <t>INS_IMU_X_Acc_Bias</t>
-  </si>
-  <si>
-    <t>INS_IMU_X_Rate_Bias</t>
-  </si>
-  <si>
-    <t>INS_IMU_Y_Acc_Bias</t>
-  </si>
-  <si>
-    <t>INS_IMU_Y_Rate_Bias</t>
-  </si>
-  <si>
-    <t>INS_IMU_Z_Acc_Bias</t>
-  </si>
-  <si>
-    <t>INS_IMU_Z_Rate_Bias</t>
-  </si>
-  <si>
-    <t>INS_Vehicle_Quaternion_W</t>
-  </si>
-  <si>
-    <t>INS_Vehicle_Quaternion_X</t>
-  </si>
-  <si>
-    <t>INS_Vehicle_Quaternion_Y</t>
-  </si>
-  <si>
-    <t>INS_Vehicle_Quaternion_Z</t>
-  </si>
-  <si>
-    <t>IMU_to_Vehicle_Offset_X</t>
-  </si>
-  <si>
-    <t>IMU_to_Vehicle_Offset_Y</t>
-  </si>
-  <si>
-    <t>IMU_to_Vehicle_Offset_Z</t>
-  </si>
-  <si>
-    <t>INS_Timestamp</t>
-  </si>
-  <si>
-    <t>INS_Timestamp_Valid</t>
-  </si>
-  <si>
-    <t>INS_146_TiDiffer</t>
-  </si>
-  <si>
-    <t>INS_IMU_X_Acc</t>
-  </si>
-  <si>
-    <t>INS_IMU_X_Rate</t>
-  </si>
-  <si>
-    <t>INS_IMU_Y_Acc</t>
-  </si>
-  <si>
-    <t>INS_IMU_Y_Rate</t>
-  </si>
-  <si>
-    <t>INS_IMU_Z_Acc</t>
-  </si>
-  <si>
-    <t>INS_IMU_Z_Rate</t>
-  </si>
-  <si>
-    <t>IMU_to_Vehicle_Error_Quaternion_W</t>
-  </si>
-  <si>
-    <t>IMU_to_Vehicle_Error_Quaternion_X</t>
-  </si>
-  <si>
-    <t>IMU_to_Vehicle_Error_Quaternion_Y</t>
-  </si>
-  <si>
-    <t>IMU_to_Vehicle_Error_Quaternion_Z</t>
-  </si>
-  <si>
-    <t>SlowDr_Status</t>
-  </si>
-  <si>
-    <t>INS_Vehicle_SlowDr_Pos_X</t>
-  </si>
-  <si>
-    <t>INS_Vehicle_SlowDr_Pos_Y</t>
-  </si>
-  <si>
-    <t>INS_Vehicle_SlowDr_Pos_Z</t>
-  </si>
-  <si>
-    <t>INS_Vehicle_SlowDr_Roll</t>
-  </si>
-  <si>
-    <t>INS_Vehicle_SlowDr_Pitch</t>
-  </si>
-  <si>
-    <t>INS_Vehicle_SlowDr_Heading</t>
   </si>
   <si>
     <t>signal
@@ -163,6 +33,12 @@
 (Btye)</t>
   </si>
   <si>
+    <t>Factor</t>
+  </si>
+  <si>
+    <t>Offset</t>
+  </si>
+  <si>
     <t>INS_Vehicle_Heading</t>
   </si>
   <si>
@@ -244,6 +120,12 @@
     <t>INS_GPS_Time</t>
   </si>
   <si>
+    <t>INS_Timestamp</t>
+  </si>
+  <si>
+    <t>INS_Timestamp_Valid</t>
+  </si>
+  <si>
     <t>INS_POS_Match_RTK_POS_Mark</t>
   </si>
   <si>
@@ -277,6 +159,126 @@
     <t>v2.0</t>
   </si>
   <si>
+    <t>signal Length (Btye)</t>
+  </si>
+  <si>
+    <t>INS_Vehicle_X_Acc</t>
+  </si>
+  <si>
+    <t>INS_Vehicle_X_Rate</t>
+  </si>
+  <si>
+    <t>INS_Vehicle_Y_Acc</t>
+  </si>
+  <si>
+    <t>INS_Vehicle_Y_Rate</t>
+  </si>
+  <si>
+    <t>INS_Vehicle_Z_Acc</t>
+  </si>
+  <si>
+    <t>INS_Vehicle_Z_Rate</t>
+  </si>
+  <si>
+    <t>INS_IMU_Time</t>
+  </si>
+  <si>
+    <t>INS_IMU_Valid</t>
+  </si>
+  <si>
+    <t>INS_IMU_X_Acc_Bias</t>
+  </si>
+  <si>
+    <t>INS_IMU_X_Rate_Bias</t>
+  </si>
+  <si>
+    <t>INS_IMU_Y_Acc_Bias</t>
+  </si>
+  <si>
+    <t>INS_IMU_Y_Rate_Bias</t>
+  </si>
+  <si>
+    <t>INS_IMU_Z_Acc_Bias</t>
+  </si>
+  <si>
+    <t>INS_IMU_Z_Rate_Bias</t>
+  </si>
+  <si>
+    <t>INS_Vehicle_Quaternion_W</t>
+  </si>
+  <si>
+    <t>INS_Vehicle_Quaternion_X</t>
+  </si>
+  <si>
+    <t>INS_Vehicle_Quaternion_Y</t>
+  </si>
+  <si>
+    <t>INS_Vehicle_Quaternion_Z</t>
+  </si>
+  <si>
+    <t>IMU_to_Vehicle_Offset_X</t>
+  </si>
+  <si>
+    <t>IMU_to_Vehicle_Offset_Y</t>
+  </si>
+  <si>
+    <t>IMU_to_Vehicle_Offset_Z</t>
+  </si>
+  <si>
+    <t>INS_146_TiDiffer</t>
+  </si>
+  <si>
+    <t>INS_IMU_X_Acc</t>
+  </si>
+  <si>
+    <t>INS_IMU_X_Rate</t>
+  </si>
+  <si>
+    <t>INS_IMU_Y_Acc</t>
+  </si>
+  <si>
+    <t>INS_IMU_Y_Rate</t>
+  </si>
+  <si>
+    <t>INS_IMU_Z_Acc</t>
+  </si>
+  <si>
+    <t>INS_IMU_Z_Rate</t>
+  </si>
+  <si>
+    <t>IMU_to_Vehicle_Error_Quaternion_W</t>
+  </si>
+  <si>
+    <t>IMU_to_Vehicle_Error_Quaternion_X</t>
+  </si>
+  <si>
+    <t>IMU_to_Vehicle_Error_Quaternion_Y</t>
+  </si>
+  <si>
+    <t>IMU_to_Vehicle_Error_Quaternion_Z</t>
+  </si>
+  <si>
+    <t>SlowDr_Status</t>
+  </si>
+  <si>
+    <t>INS_Vehicle_SlowDr_Pos_X</t>
+  </si>
+  <si>
+    <t>INS_Vehicle_SlowDr_Pos_Y</t>
+  </si>
+  <si>
+    <t>INS_Vehicle_SlowDr_Pos_Z</t>
+  </si>
+  <si>
+    <t>INS_Vehicle_SlowDr_Roll</t>
+  </si>
+  <si>
+    <t>INS_Vehicle_SlowDr_Pitch</t>
+  </si>
+  <si>
+    <t>INS_Vehicle_SlowDr_Heading</t>
+  </si>
+  <si>
     <t>INS_GNSS_Time_Year</t>
   </si>
   <si>
@@ -361,25 +363,82 @@
     <t>INS_GNSS_Time_Valid</t>
   </si>
   <si>
+    <t>INS_CorrelationSystem_failure_status</t>
+  </si>
+  <si>
+    <t>INS_IMU_Temp</t>
+  </si>
+  <si>
+    <t>INS_Sts</t>
+  </si>
+  <si>
+    <t>INS_Wheel_Scale_factor</t>
+  </si>
+  <si>
+    <t>INS_Longitude_Hemisphere</t>
+  </si>
+  <si>
+    <t>INS_Latitude_Hemisphere</t>
+  </si>
+  <si>
+    <t>INSHwVers0</t>
+  </si>
+  <si>
+    <t>INSHwVers1</t>
+  </si>
+  <si>
+    <t>INSHwVers2</t>
+  </si>
+  <si>
+    <t>INSHwVers3</t>
+  </si>
+  <si>
+    <t>INSHwVers4</t>
+  </si>
+  <si>
+    <t>INSHwVers5</t>
+  </si>
+  <si>
+    <t>INSHwVers6</t>
+  </si>
+  <si>
+    <t>INSSwVers0</t>
+  </si>
+  <si>
+    <t>INSSwVers1</t>
+  </si>
+  <si>
+    <t>INSSwVers2</t>
+  </si>
+  <si>
+    <t>INSSwVers3</t>
+  </si>
+  <si>
+    <t>INSSwVers4</t>
+  </si>
+  <si>
+    <t>INSSwVers5</t>
+  </si>
+  <si>
+    <t>INSSwVers6</t>
+  </si>
+  <si>
+    <t>INS_TiStamp</t>
+  </si>
+  <si>
+    <t>INS_TiBas</t>
+  </si>
+  <si>
+    <t>INS_TiLeap</t>
+  </si>
+  <si>
+    <t>INS_TiOut</t>
+  </si>
+  <si>
+    <t>INS_TIleap_Difference</t>
+  </si>
+  <si>
     <t>重写了起始位：B3=B2+C2，B4=B3+C3 ...以此类推</t>
-  </si>
-  <si>
-    <t>INS_CorrelationSystem_failure_status</t>
-  </si>
-  <si>
-    <t>INS_IMU_Temp</t>
-  </si>
-  <si>
-    <t>INS_Sts</t>
-  </si>
-  <si>
-    <t>INS_Wheel_Scale_factor</t>
-  </si>
-  <si>
-    <t>INS_Longitude_Hemisphere</t>
-  </si>
-  <si>
-    <t>INS_Latitude_Hemisphere</t>
   </si>
 </sst>
 </file>
@@ -597,13 +656,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1094,7 +1153,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1113,39 +1172,54 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="54" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="54" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1160,12 +1234,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="56">
@@ -1522,6 +1590,686 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:F38"/>
+  <sheetViews>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="25.6666666666667" customWidth="1"/>
+    <col min="2" max="5" width="19.8888888888889" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="39.6" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
+        <v>3</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0.001</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4">
+        <v>3</v>
+      </c>
+      <c r="C3" s="4">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.001</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="4">
+        <v>5</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="4">
+        <v>6</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="4">
+        <v>7</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="4">
+        <v>8</v>
+      </c>
+      <c r="C7" s="4">
+        <v>4</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1e-7</v>
+      </c>
+      <c r="E7" s="5">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="4">
+        <v>12</v>
+      </c>
+      <c r="C8" s="4">
+        <v>2</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="4">
+        <v>14</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="4">
+        <v>15</v>
+      </c>
+      <c r="C10" s="4">
+        <v>4</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1e-7</v>
+      </c>
+      <c r="E10" s="5">
+        <v>-180</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="4">
+        <v>19</v>
+      </c>
+      <c r="C11" s="4">
+        <v>2</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="4">
+        <v>21</v>
+      </c>
+      <c r="C12" s="4">
+        <v>3</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0.001</v>
+      </c>
+      <c r="E12" s="5">
+        <v>-180</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="4">
+        <v>24</v>
+      </c>
+      <c r="C13" s="4">
+        <v>2</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0.001</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="4">
+        <v>26</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="4">
+        <v>27</v>
+      </c>
+      <c r="C15" s="4">
+        <v>3</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0.001</v>
+      </c>
+      <c r="E15" s="5">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="4">
+        <v>30</v>
+      </c>
+      <c r="C16" s="4">
+        <v>2</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0.001</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="4">
+        <v>32</v>
+      </c>
+      <c r="C17" s="4">
+        <v>1</v>
+      </c>
+      <c r="D17" s="5">
+        <v>1</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="4">
+        <v>33</v>
+      </c>
+      <c r="C18" s="4">
+        <v>3</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0.001</v>
+      </c>
+      <c r="E18" s="5">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="4">
+        <v>36</v>
+      </c>
+      <c r="C19" s="4">
+        <v>2</v>
+      </c>
+      <c r="D19" s="5">
+        <v>1</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="4">
+        <v>38</v>
+      </c>
+      <c r="C20" s="4">
+        <v>1</v>
+      </c>
+      <c r="D20" s="5">
+        <v>1</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="4">
+        <v>39</v>
+      </c>
+      <c r="C21" s="4">
+        <v>2</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0.015625</v>
+      </c>
+      <c r="E21" s="5">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="4">
+        <v>41</v>
+      </c>
+      <c r="C22" s="4">
+        <v>2</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0.015625</v>
+      </c>
+      <c r="E22" s="5">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="4">
+        <v>43</v>
+      </c>
+      <c r="C23" s="4">
+        <v>2</v>
+      </c>
+      <c r="D23" s="5">
+        <v>0.015625</v>
+      </c>
+      <c r="E23" s="5">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="4">
+        <v>45</v>
+      </c>
+      <c r="C24" s="4">
+        <v>2</v>
+      </c>
+      <c r="D24" s="5">
+        <v>0.015625</v>
+      </c>
+      <c r="E24" s="5">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="4">
+        <v>47</v>
+      </c>
+      <c r="C25" s="4">
+        <v>2</v>
+      </c>
+      <c r="D25" s="5">
+        <v>0.0001</v>
+      </c>
+      <c r="E25" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="4">
+        <v>49</v>
+      </c>
+      <c r="C26" s="4">
+        <v>2</v>
+      </c>
+      <c r="D26" s="5">
+        <v>0.0001</v>
+      </c>
+      <c r="E26" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="4">
+        <v>51</v>
+      </c>
+      <c r="C27" s="4">
+        <v>2</v>
+      </c>
+      <c r="D27" s="5">
+        <v>1</v>
+      </c>
+      <c r="E27" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="4">
+        <v>53</v>
+      </c>
+      <c r="C28" s="4">
+        <v>4</v>
+      </c>
+      <c r="D28" s="5">
+        <v>1</v>
+      </c>
+      <c r="E28" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="12">
+        <v>57</v>
+      </c>
+      <c r="C29" s="12">
+        <v>8</v>
+      </c>
+      <c r="D29" s="5">
+        <v>0.0001</v>
+      </c>
+      <c r="E29" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="12">
+        <v>65</v>
+      </c>
+      <c r="C30" s="4">
+        <v>1</v>
+      </c>
+      <c r="D30" s="5">
+        <v>1</v>
+      </c>
+      <c r="E30" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="19">
+        <v>66</v>
+      </c>
+      <c r="C31" s="19">
+        <v>1</v>
+      </c>
+      <c r="D31" s="20">
+        <v>1</v>
+      </c>
+      <c r="E31" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="19">
+        <v>67</v>
+      </c>
+      <c r="C32" s="19">
+        <v>2</v>
+      </c>
+      <c r="D32" s="20">
+        <v>1</v>
+      </c>
+      <c r="E32" s="20">
+        <v>0</v>
+      </c>
+      <c r="F32" s="22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="24">
+        <v>69</v>
+      </c>
+      <c r="C33" s="24">
+        <v>1</v>
+      </c>
+      <c r="D33" s="25">
+        <v>1</v>
+      </c>
+      <c r="E33" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="24">
+        <v>70</v>
+      </c>
+      <c r="C34" s="24">
+        <v>1</v>
+      </c>
+      <c r="D34" s="25">
+        <v>1</v>
+      </c>
+      <c r="E34" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="24">
+        <v>71</v>
+      </c>
+      <c r="C35" s="24">
+        <v>1</v>
+      </c>
+      <c r="D35" s="25">
+        <v>1</v>
+      </c>
+      <c r="E35" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="24">
+        <v>72</v>
+      </c>
+      <c r="C36" s="24">
+        <v>1</v>
+      </c>
+      <c r="D36" s="25">
+        <v>1</v>
+      </c>
+      <c r="E36" s="25">
+        <v>0</v>
+      </c>
+      <c r="F36" s="22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" s="24">
+        <v>73</v>
+      </c>
+      <c r="C37" s="24">
+        <v>1</v>
+      </c>
+      <c r="D37" s="25">
+        <v>1</v>
+      </c>
+      <c r="E37" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="24">
+        <v>74</v>
+      </c>
+      <c r="C38" s="24">
+        <v>1</v>
+      </c>
+      <c r="D38" s="25">
+        <v>1</v>
+      </c>
+      <c r="E38" s="25">
+        <v>0</v>
+      </c>
+      <c r="F38" s="22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:E32">
+    <sortCondition ref="B2"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1545,7 +2293,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1555,8 +2303,8 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="13" t="s">
-        <v>5</v>
+      <c r="A2" s="16" t="s">
+        <v>46</v>
       </c>
       <c r="B2" s="4">
         <v>0</v>
@@ -1572,8 +2320,8 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="13" t="s">
-        <v>6</v>
+      <c r="A3" s="16" t="s">
+        <v>47</v>
       </c>
       <c r="B3" s="4">
         <v>3</v>
@@ -1581,7 +2329,7 @@
       <c r="C3" s="4">
         <v>3</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3" s="17">
         <v>1.7452e-5</v>
       </c>
       <c r="E3" s="5">
@@ -1589,8 +2337,8 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="13" t="s">
-        <v>7</v>
+      <c r="A4" s="16" t="s">
+        <v>48</v>
       </c>
       <c r="B4" s="4">
         <v>6</v>
@@ -1606,8 +2354,8 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="13" t="s">
-        <v>8</v>
+      <c r="A5" s="16" t="s">
+        <v>49</v>
       </c>
       <c r="B5" s="4">
         <v>9</v>
@@ -1615,7 +2363,7 @@
       <c r="C5" s="4">
         <v>3</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="17">
         <v>1.7452e-5</v>
       </c>
       <c r="E5" s="5">
@@ -1623,8 +2371,8 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="13" t="s">
-        <v>9</v>
+      <c r="A6" s="16" t="s">
+        <v>50</v>
       </c>
       <c r="B6" s="4">
         <v>12</v>
@@ -1640,8 +2388,8 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="13" t="s">
-        <v>10</v>
+      <c r="A7" s="16" t="s">
+        <v>51</v>
       </c>
       <c r="B7" s="4">
         <v>15</v>
@@ -1649,7 +2397,7 @@
       <c r="C7" s="4">
         <v>3</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="17">
         <v>1.7452e-5</v>
       </c>
       <c r="E7" s="5">
@@ -1658,7 +2406,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="B8" s="4">
         <v>18</v>
@@ -1675,7 +2423,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="B9" s="4">
         <v>22</v>
@@ -1691,8 +2439,8 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="13" t="s">
-        <v>13</v>
+      <c r="A10" s="16" t="s">
+        <v>54</v>
       </c>
       <c r="B10" s="4">
         <v>23</v>
@@ -1708,8 +2456,8 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="13" t="s">
-        <v>14</v>
+      <c r="A11" s="16" t="s">
+        <v>55</v>
       </c>
       <c r="B11" s="4">
         <v>25</v>
@@ -1717,16 +2465,16 @@
       <c r="C11" s="4">
         <v>2</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="17">
         <v>1.7452e-5</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="17">
         <v>-0.17452</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="13" t="s">
-        <v>15</v>
+      <c r="A12" s="16" t="s">
+        <v>56</v>
       </c>
       <c r="B12" s="4">
         <v>27</v>
@@ -1742,8 +2490,8 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="13" t="s">
-        <v>16</v>
+      <c r="A13" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="B13" s="4">
         <v>29</v>
@@ -1751,16 +2499,16 @@
       <c r="C13" s="4">
         <v>2</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="17">
         <v>1.7452e-5</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="17">
         <v>-0.17452</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="13" t="s">
-        <v>17</v>
+      <c r="A14" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="B14" s="4">
         <v>31</v>
@@ -1776,8 +2524,8 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="13" t="s">
-        <v>18</v>
+      <c r="A15" s="16" t="s">
+        <v>59</v>
       </c>
       <c r="B15" s="4">
         <v>33</v>
@@ -1785,16 +2533,16 @@
       <c r="C15" s="4">
         <v>2</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D15" s="17">
         <v>1.7452e-5</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="17">
         <v>-0.17452</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="13" t="s">
-        <v>19</v>
+      <c r="A16" s="16" t="s">
+        <v>60</v>
       </c>
       <c r="B16" s="4">
         <v>35</v>
@@ -1810,8 +2558,8 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="13" t="s">
-        <v>20</v>
+      <c r="A17" s="16" t="s">
+        <v>61</v>
       </c>
       <c r="B17" s="4">
         <v>38</v>
@@ -1827,8 +2575,8 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="13" t="s">
-        <v>21</v>
+      <c r="A18" s="16" t="s">
+        <v>62</v>
       </c>
       <c r="B18" s="4">
         <v>41</v>
@@ -1844,8 +2592,8 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="13" t="s">
-        <v>22</v>
+      <c r="A19" s="16" t="s">
+        <v>63</v>
       </c>
       <c r="B19" s="4">
         <v>44</v>
@@ -1861,8 +2609,8 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="13" t="s">
-        <v>23</v>
+      <c r="A20" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="B20" s="4">
         <v>47</v>
@@ -1870,16 +2618,16 @@
       <c r="C20" s="4">
         <v>3</v>
       </c>
-      <c r="D20" s="22">
+      <c r="D20" s="17">
         <v>0.0001</v>
       </c>
-      <c r="E20" s="22">
+      <c r="E20" s="17">
         <v>-5</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="13" t="s">
-        <v>24</v>
+      <c r="A21" s="16" t="s">
+        <v>65</v>
       </c>
       <c r="B21" s="4">
         <v>50</v>
@@ -1887,16 +2635,16 @@
       <c r="C21" s="4">
         <v>3</v>
       </c>
-      <c r="D21" s="22">
+      <c r="D21" s="17">
         <v>0.0001</v>
       </c>
-      <c r="E21" s="22">
+      <c r="E21" s="17">
         <v>-5</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="13" t="s">
-        <v>25</v>
+      <c r="A22" s="16" t="s">
+        <v>66</v>
       </c>
       <c r="B22" s="4">
         <v>53</v>
@@ -1904,21 +2652,21 @@
       <c r="C22" s="4">
         <v>3</v>
       </c>
-      <c r="D22" s="22">
+      <c r="D22" s="17">
         <v>0.0001</v>
       </c>
-      <c r="E22" s="22">
+      <c r="E22" s="17">
         <v>-5</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="6">
+      <c r="A23" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="12">
         <v>56</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="12">
         <v>8</v>
       </c>
       <c r="D23" s="5">
@@ -1929,10 +2677,10 @@
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="6">
+      <c r="A24" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="12">
         <v>64</v>
       </c>
       <c r="C24" s="4">
@@ -1946,992 +2694,312 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="15">
+      <c r="A25" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="19">
         <v>65</v>
       </c>
-      <c r="C25" s="15">
+      <c r="C25" s="19">
         <v>2</v>
       </c>
-      <c r="D25" s="16">
-        <v>1</v>
-      </c>
-      <c r="E25" s="16">
+      <c r="D25" s="20">
+        <v>1</v>
+      </c>
+      <c r="E25" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="6">
+      <c r="A26" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="12">
         <v>67</v>
       </c>
-      <c r="C26" s="6">
-        <v>3</v>
-      </c>
-      <c r="D26" s="22">
+      <c r="C26" s="12">
+        <v>3</v>
+      </c>
+      <c r="D26" s="17">
         <v>0.001</v>
       </c>
-      <c r="E26" s="22">
+      <c r="E26" s="17">
         <v>-40</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="6">
+      <c r="A27" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="12">
         <v>70</v>
       </c>
-      <c r="C27" s="6">
-        <v>3</v>
-      </c>
-      <c r="D27" s="22">
+      <c r="C27" s="12">
+        <v>3</v>
+      </c>
+      <c r="D27" s="17">
         <v>1.7452e-5</v>
       </c>
-      <c r="E27" s="22">
+      <c r="E27" s="17">
         <v>-4.363</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="6">
+      <c r="A28" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" s="12">
         <v>73</v>
       </c>
-      <c r="C28" s="6">
-        <v>3</v>
-      </c>
-      <c r="D28" s="22">
+      <c r="C28" s="12">
+        <v>3</v>
+      </c>
+      <c r="D28" s="17">
         <v>0.001</v>
       </c>
-      <c r="E28" s="22">
+      <c r="E28" s="17">
         <v>-40</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" s="6">
+      <c r="A29" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" s="12">
         <v>76</v>
       </c>
-      <c r="C29" s="6">
-        <v>3</v>
-      </c>
-      <c r="D29" s="22">
+      <c r="C29" s="12">
+        <v>3</v>
+      </c>
+      <c r="D29" s="17">
         <v>1.7452e-5</v>
       </c>
-      <c r="E29" s="22">
+      <c r="E29" s="17">
         <v>-4.363</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" s="6">
+      <c r="A30" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" s="12">
         <v>79</v>
       </c>
-      <c r="C30" s="6">
-        <v>3</v>
-      </c>
-      <c r="D30" s="22">
+      <c r="C30" s="12">
+        <v>3</v>
+      </c>
+      <c r="D30" s="17">
         <v>0.001</v>
       </c>
-      <c r="E30" s="22">
+      <c r="E30" s="17">
         <v>-40</v>
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" s="6">
+      <c r="A31" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" s="12">
         <v>82</v>
       </c>
-      <c r="C31" s="6">
-        <v>3</v>
-      </c>
-      <c r="D31" s="22">
+      <c r="C31" s="12">
+        <v>3</v>
+      </c>
+      <c r="D31" s="17">
         <v>1.7452e-5</v>
       </c>
-      <c r="E31" s="22">
+      <c r="E31" s="17">
         <v>-4.363</v>
       </c>
     </row>
     <row r="32" ht="26.4" spans="1:5">
-      <c r="A32" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" s="6">
+      <c r="A32" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" s="12">
         <v>85</v>
       </c>
-      <c r="C32" s="6">
-        <v>3</v>
-      </c>
-      <c r="D32" s="22">
+      <c r="C32" s="12">
+        <v>3</v>
+      </c>
+      <c r="D32" s="17">
         <v>1e-6</v>
       </c>
-      <c r="E32" s="22">
+      <c r="E32" s="17">
         <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33" s="6">
+      <c r="A33" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" s="12">
         <v>88</v>
       </c>
-      <c r="C33" s="6">
-        <v>3</v>
-      </c>
-      <c r="D33" s="22">
+      <c r="C33" s="12">
+        <v>3</v>
+      </c>
+      <c r="D33" s="17">
         <v>1e-6</v>
       </c>
-      <c r="E33" s="22">
+      <c r="E33" s="17">
         <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34" s="6">
+      <c r="A34" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" s="12">
         <v>91</v>
       </c>
-      <c r="C34" s="6">
-        <v>3</v>
-      </c>
-      <c r="D34" s="22">
+      <c r="C34" s="12">
+        <v>3</v>
+      </c>
+      <c r="D34" s="17">
         <v>1e-6</v>
       </c>
-      <c r="E34" s="22">
+      <c r="E34" s="17">
         <v>-1</v>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35" s="6">
+      <c r="A35" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" s="12">
         <v>94</v>
       </c>
-      <c r="C35" s="6">
-        <v>3</v>
-      </c>
-      <c r="D35" s="22">
+      <c r="C35" s="12">
+        <v>3</v>
+      </c>
+      <c r="D35" s="17">
         <v>1e-6</v>
       </c>
-      <c r="E35" s="22">
+      <c r="E35" s="17">
         <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36" s="8">
+      <c r="A36" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" s="7">
         <v>97</v>
       </c>
-      <c r="C36" s="8">
-        <v>1</v>
-      </c>
-      <c r="D36" s="9">
-        <v>1</v>
-      </c>
-      <c r="E36" s="9">
+      <c r="C36" s="7">
+        <v>1</v>
+      </c>
+      <c r="D36" s="8">
+        <v>1</v>
+      </c>
+      <c r="E36" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B37" s="8">
+      <c r="A37" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37" s="7">
         <v>98</v>
       </c>
-      <c r="C37" s="10">
+      <c r="C37" s="9">
         <v>4</v>
       </c>
-      <c r="D37" s="11">
+      <c r="D37" s="10">
         <v>0.001</v>
       </c>
-      <c r="E37" s="11">
+      <c r="E37" s="10">
         <v>-2147483.647</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38" s="8">
+      <c r="A38" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B38" s="7">
         <v>102</v>
       </c>
-      <c r="C38" s="10">
+      <c r="C38" s="9">
         <v>4</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D38" s="10">
         <v>0.001</v>
       </c>
-      <c r="E38" s="11">
+      <c r="E38" s="10">
         <v>-2147483.647</v>
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39" s="8">
+      <c r="A39" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39" s="7">
         <v>106</v>
       </c>
-      <c r="C39" s="10">
+      <c r="C39" s="9">
         <v>4</v>
       </c>
-      <c r="D39" s="11">
+      <c r="D39" s="10">
         <v>0.001</v>
       </c>
-      <c r="E39" s="11">
+      <c r="E39" s="10">
         <v>-2147483.647</v>
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B40" s="8">
+      <c r="A40" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B40" s="7">
         <v>110</v>
       </c>
-      <c r="C40" s="8">
-        <v>3</v>
-      </c>
-      <c r="D40" s="9">
+      <c r="C40" s="7">
+        <v>3</v>
+      </c>
+      <c r="D40" s="8">
         <v>0.001</v>
       </c>
-      <c r="E40" s="9">
+      <c r="E40" s="8">
         <v>-90</v>
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B41" s="8">
+      <c r="A41" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41" s="7">
         <v>113</v>
       </c>
-      <c r="C41" s="8">
-        <v>3</v>
-      </c>
-      <c r="D41" s="9">
+      <c r="C41" s="7">
+        <v>3</v>
+      </c>
+      <c r="D41" s="8">
         <v>0.001</v>
       </c>
-      <c r="E41" s="9">
+      <c r="E41" s="8">
         <v>-180</v>
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B42" s="8">
+      <c r="A42" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42" s="7">
         <v>116</v>
       </c>
-      <c r="C42" s="8">
-        <v>3</v>
-      </c>
-      <c r="D42" s="9">
+      <c r="C42" s="7">
+        <v>3</v>
+      </c>
+      <c r="D42" s="8">
         <v>0.001</v>
       </c>
-      <c r="E42" s="9">
+      <c r="E42" s="8">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F38"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
-  <cols>
-    <col min="1" max="1" width="25.6666666666667" customWidth="1"/>
-    <col min="2" max="5" width="19.8888888888889" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="39.6" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="4">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4">
-        <v>3</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0.001</v>
-      </c>
-      <c r="E2" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="4">
-        <v>3</v>
-      </c>
-      <c r="C3" s="4">
-        <v>2</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0.001</v>
-      </c>
-      <c r="E3" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="4">
-        <v>5</v>
-      </c>
-      <c r="C4" s="4">
-        <v>1</v>
-      </c>
-      <c r="D4" s="5">
-        <v>1</v>
-      </c>
-      <c r="E4" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="4">
-        <v>6</v>
-      </c>
-      <c r="C5" s="4">
-        <v>1</v>
-      </c>
-      <c r="D5" s="5">
-        <v>1</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="4">
-        <v>7</v>
-      </c>
-      <c r="C6" s="4">
-        <v>1</v>
-      </c>
-      <c r="D6" s="5">
-        <v>1</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="4">
-        <v>8</v>
-      </c>
-      <c r="C7" s="4">
-        <v>4</v>
-      </c>
-      <c r="D7" s="5">
-        <v>1e-7</v>
-      </c>
-      <c r="E7" s="5">
-        <v>-90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="4">
-        <v>12</v>
-      </c>
-      <c r="C8" s="4">
-        <v>2</v>
-      </c>
-      <c r="D8" s="5">
-        <v>1</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="4">
-        <v>14</v>
-      </c>
-      <c r="C9" s="4">
-        <v>1</v>
-      </c>
-      <c r="D9" s="5">
-        <v>1</v>
-      </c>
-      <c r="E9" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" s="4">
-        <v>15</v>
-      </c>
-      <c r="C10" s="4">
-        <v>4</v>
-      </c>
-      <c r="D10" s="5">
-        <v>1e-7</v>
-      </c>
-      <c r="E10" s="5">
-        <v>-180</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="4">
-        <v>19</v>
-      </c>
-      <c r="C11" s="4">
-        <v>2</v>
-      </c>
-      <c r="D11" s="5">
-        <v>1</v>
-      </c>
-      <c r="E11" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" s="4">
-        <v>21</v>
-      </c>
-      <c r="C12" s="4">
-        <v>3</v>
-      </c>
-      <c r="D12" s="5">
-        <v>0.001</v>
-      </c>
-      <c r="E12" s="5">
-        <v>-180</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" s="4">
-        <v>24</v>
-      </c>
-      <c r="C13" s="4">
-        <v>2</v>
-      </c>
-      <c r="D13" s="5">
-        <v>0.001</v>
-      </c>
-      <c r="E13" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="4">
-        <v>26</v>
-      </c>
-      <c r="C14" s="4">
-        <v>1</v>
-      </c>
-      <c r="D14" s="5">
-        <v>1</v>
-      </c>
-      <c r="E14" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B15" s="4">
-        <v>27</v>
-      </c>
-      <c r="C15" s="4">
-        <v>3</v>
-      </c>
-      <c r="D15" s="5">
-        <v>0.001</v>
-      </c>
-      <c r="E15" s="5">
-        <v>-90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" s="4">
-        <v>30</v>
-      </c>
-      <c r="C16" s="4">
-        <v>2</v>
-      </c>
-      <c r="D16" s="5">
-        <v>0.001</v>
-      </c>
-      <c r="E16" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B17" s="4">
-        <v>32</v>
-      </c>
-      <c r="C17" s="4">
-        <v>1</v>
-      </c>
-      <c r="D17" s="5">
-        <v>1</v>
-      </c>
-      <c r="E17" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B18" s="4">
-        <v>33</v>
-      </c>
-      <c r="C18" s="4">
-        <v>3</v>
-      </c>
-      <c r="D18" s="5">
-        <v>0.001</v>
-      </c>
-      <c r="E18" s="5">
-        <v>-1000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B19" s="4">
-        <v>36</v>
-      </c>
-      <c r="C19" s="4">
-        <v>2</v>
-      </c>
-      <c r="D19" s="5">
-        <v>1</v>
-      </c>
-      <c r="E19" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B20" s="4">
-        <v>38</v>
-      </c>
-      <c r="C20" s="4">
-        <v>1</v>
-      </c>
-      <c r="D20" s="5">
-        <v>1</v>
-      </c>
-      <c r="E20" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B21" s="4">
-        <v>39</v>
-      </c>
-      <c r="C21" s="4">
-        <v>2</v>
-      </c>
-      <c r="D21" s="5">
-        <v>0.015625</v>
-      </c>
-      <c r="E21" s="5">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B22" s="4">
-        <v>41</v>
-      </c>
-      <c r="C22" s="4">
-        <v>2</v>
-      </c>
-      <c r="D22" s="5">
-        <v>0.015625</v>
-      </c>
-      <c r="E22" s="5">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="B23" s="4">
-        <v>43</v>
-      </c>
-      <c r="C23" s="4">
-        <v>2</v>
-      </c>
-      <c r="D23" s="5">
-        <v>0.015625</v>
-      </c>
-      <c r="E23" s="5">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="B24" s="4">
-        <v>45</v>
-      </c>
-      <c r="C24" s="4">
-        <v>2</v>
-      </c>
-      <c r="D24" s="5">
-        <v>0.015625</v>
-      </c>
-      <c r="E24" s="5">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="B25" s="4">
-        <v>47</v>
-      </c>
-      <c r="C25" s="4">
-        <v>2</v>
-      </c>
-      <c r="D25" s="5">
-        <v>0.0001</v>
-      </c>
-      <c r="E25" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="B26" s="4">
-        <v>49</v>
-      </c>
-      <c r="C26" s="4">
-        <v>2</v>
-      </c>
-      <c r="D26" s="5">
-        <v>0.0001</v>
-      </c>
-      <c r="E26" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B27" s="4">
-        <v>51</v>
-      </c>
-      <c r="C27" s="4">
-        <v>2</v>
-      </c>
-      <c r="D27" s="5">
-        <v>1</v>
-      </c>
-      <c r="E27" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B28" s="4">
-        <v>53</v>
-      </c>
-      <c r="C28" s="4">
-        <v>4</v>
-      </c>
-      <c r="D28" s="5">
-        <v>1</v>
-      </c>
-      <c r="E28" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" s="6">
-        <v>57</v>
-      </c>
-      <c r="C29" s="6">
-        <v>8</v>
-      </c>
-      <c r="D29" s="5">
-        <v>0.0001</v>
-      </c>
-      <c r="E29" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" s="6">
-        <v>65</v>
-      </c>
-      <c r="C30" s="4">
-        <v>1</v>
-      </c>
-      <c r="D30" s="5">
-        <v>1</v>
-      </c>
-      <c r="E30" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B31" s="15">
-        <v>66</v>
-      </c>
-      <c r="C31" s="15">
-        <v>1</v>
-      </c>
-      <c r="D31" s="16">
-        <v>1</v>
-      </c>
-      <c r="E31" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="B32" s="15">
-        <v>67</v>
-      </c>
-      <c r="C32" s="15">
-        <v>2</v>
-      </c>
-      <c r="D32" s="16">
-        <v>1</v>
-      </c>
-      <c r="E32" s="16">
-        <v>0</v>
-      </c>
-      <c r="F32" s="17" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="B33" s="19">
-        <v>69</v>
-      </c>
-      <c r="C33" s="19">
-        <v>1</v>
-      </c>
-      <c r="D33" s="20">
-        <v>1</v>
-      </c>
-      <c r="E33" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="B34" s="19">
-        <v>70</v>
-      </c>
-      <c r="C34" s="19">
-        <v>1</v>
-      </c>
-      <c r="D34" s="20">
-        <v>1</v>
-      </c>
-      <c r="E34" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="B35" s="19">
-        <v>71</v>
-      </c>
-      <c r="C35" s="19">
-        <v>1</v>
-      </c>
-      <c r="D35" s="20">
-        <v>1</v>
-      </c>
-      <c r="E35" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="B36" s="19">
-        <v>72</v>
-      </c>
-      <c r="C36" s="19">
-        <v>1</v>
-      </c>
-      <c r="D36" s="20">
-        <v>1</v>
-      </c>
-      <c r="E36" s="20">
-        <v>0</v>
-      </c>
-      <c r="F36" s="17" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="B37" s="19">
-        <v>73</v>
-      </c>
-      <c r="C37" s="19">
-        <v>1</v>
-      </c>
-      <c r="D37" s="20">
-        <v>1</v>
-      </c>
-      <c r="E37" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B38" s="19">
-        <v>74</v>
-      </c>
-      <c r="C38" s="19">
-        <v>1</v>
-      </c>
-      <c r="D38" s="20">
-        <v>1</v>
-      </c>
-      <c r="E38" s="20">
-        <v>0</v>
-      </c>
-      <c r="F38" s="17" t="s">
-        <v>84</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="A2:E32">
-    <sortCondition ref="B2"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -2960,7 +3028,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -2973,7 +3041,7 @@
       <c r="A2" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="12">
         <v>0</v>
       </c>
       <c r="C2" s="4">
@@ -2982,7 +3050,7 @@
       <c r="D2" s="5">
         <v>1</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="15">
         <v>2000</v>
       </c>
     </row>
@@ -3454,189 +3522,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
-  <cols>
-    <col min="1" max="1" width="25.6666666666667" customWidth="1"/>
-    <col min="2" max="5" width="19.8888888888889" customWidth="1"/>
-    <col min="7" max="7" width="64.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="39.6" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B2" s="4">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4">
-        <v>4</v>
-      </c>
-      <c r="D2" s="5">
-        <v>1</v>
-      </c>
-      <c r="E2" s="5">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="8">
-        <v>4</v>
-      </c>
-      <c r="C3" s="8">
-        <v>1</v>
-      </c>
-      <c r="D3" s="9">
-        <v>1</v>
-      </c>
-      <c r="E3" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="8">
-        <v>5</v>
-      </c>
-      <c r="C4" s="10">
-        <v>4</v>
-      </c>
-      <c r="D4" s="11">
-        <v>0.001</v>
-      </c>
-      <c r="E4" s="11">
-        <v>-2147483.647</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="8">
-        <v>9</v>
-      </c>
-      <c r="C5" s="10">
-        <v>4</v>
-      </c>
-      <c r="D5" s="11">
-        <v>0.001</v>
-      </c>
-      <c r="E5" s="11">
-        <v>-2147483.647</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="8">
-        <v>13</v>
-      </c>
-      <c r="C6" s="10">
-        <v>4</v>
-      </c>
-      <c r="D6" s="11">
-        <v>0.001</v>
-      </c>
-      <c r="E6" s="11">
-        <v>-2147483.647</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="8">
-        <v>17</v>
-      </c>
-      <c r="C7" s="8">
-        <v>3</v>
-      </c>
-      <c r="D7" s="9">
-        <v>0.001</v>
-      </c>
-      <c r="E7" s="9">
-        <v>-90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="8">
-        <v>20</v>
-      </c>
-      <c r="C8" s="8">
-        <v>3</v>
-      </c>
-      <c r="D8" s="9">
-        <v>0.001</v>
-      </c>
-      <c r="E8" s="9">
-        <v>-180</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="8">
-        <v>23</v>
-      </c>
-      <c r="C9" s="8">
-        <v>3</v>
-      </c>
-      <c r="D9" s="9">
-        <v>0.001</v>
-      </c>
-      <c r="E9" s="9">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B8" sqref="B8:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="4"/>
@@ -3656,7 +3545,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -3667,7 +3556,7 @@
     </row>
     <row r="2" ht="15" customHeight="1" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B2" s="4">
         <v>0</v>
@@ -3684,9 +3573,9 @@
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B3" s="6">
+        <v>114</v>
+      </c>
+      <c r="B3" s="12">
         <v>1</v>
       </c>
       <c r="C3" s="4">
@@ -3701,7 +3590,7 @@
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B4" s="4">
         <v>3</v>
@@ -3718,7 +3607,7 @@
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B5" s="4">
         <v>4</v>
@@ -3735,7 +3624,7 @@
     </row>
     <row r="6" ht="15" customHeight="1" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B6" s="4">
         <v>7</v>
@@ -3752,7 +3641,7 @@
     </row>
     <row r="7" ht="15" customHeight="1" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B7" s="4">
         <v>8</v>
@@ -3771,4 +3660,580 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="5" width="30" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="39.6" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" s="4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B5" s="4">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" s="4">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4">
+        <v>2</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" s="4">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" s="4">
+        <v>7</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B9" s="4">
+        <v>8</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10" s="4">
+        <v>9</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11" s="4">
+        <v>10</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12" s="4">
+        <v>11</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B13" s="4">
+        <v>12</v>
+      </c>
+      <c r="C13" s="4">
+        <v>2</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B14" s="4">
+        <v>14</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B15" s="4">
+        <v>15</v>
+      </c>
+      <c r="C15" s="4">
+        <v>1</v>
+      </c>
+      <c r="D15" s="5">
+        <v>1</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="5" width="28.1111111111111" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="39.6" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" s="12">
+        <v>0</v>
+      </c>
+      <c r="C2" s="12">
+        <v>8</v>
+      </c>
+      <c r="D2" s="13">
+        <v>0.0001</v>
+      </c>
+      <c r="E2" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="B3" s="12">
+        <v>8</v>
+      </c>
+      <c r="C3" s="14">
+        <v>1</v>
+      </c>
+      <c r="D3" s="13">
+        <v>1</v>
+      </c>
+      <c r="E3" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" s="12">
+        <v>9</v>
+      </c>
+      <c r="C4" s="14">
+        <v>1</v>
+      </c>
+      <c r="D4" s="13">
+        <v>1</v>
+      </c>
+      <c r="E4" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5" s="12">
+        <v>10</v>
+      </c>
+      <c r="C5" s="14">
+        <v>1</v>
+      </c>
+      <c r="D5" s="13">
+        <v>1</v>
+      </c>
+      <c r="E5" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6" s="12">
+        <v>11</v>
+      </c>
+      <c r="C6" s="14">
+        <v>4</v>
+      </c>
+      <c r="D6" s="13">
+        <v>1</v>
+      </c>
+      <c r="E6" s="13">
+        <v>-10000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="25.6666666666667" customWidth="1"/>
+    <col min="2" max="5" width="19.8888888888889" customWidth="1"/>
+    <col min="7" max="7" width="64.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="39.6" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="7">
+        <v>4</v>
+      </c>
+      <c r="C3" s="7">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="7">
+        <v>5</v>
+      </c>
+      <c r="C4" s="9">
+        <v>4</v>
+      </c>
+      <c r="D4" s="10">
+        <v>0.001</v>
+      </c>
+      <c r="E4" s="10">
+        <v>-2147483.647</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="7">
+        <v>9</v>
+      </c>
+      <c r="C5" s="9">
+        <v>4</v>
+      </c>
+      <c r="D5" s="10">
+        <v>0.001</v>
+      </c>
+      <c r="E5" s="10">
+        <v>-2147483.647</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="7">
+        <v>13</v>
+      </c>
+      <c r="C6" s="9">
+        <v>4</v>
+      </c>
+      <c r="D6" s="10">
+        <v>0.001</v>
+      </c>
+      <c r="E6" s="10">
+        <v>-2147483.647</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="7">
+        <v>17</v>
+      </c>
+      <c r="C7" s="7">
+        <v>3</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0.001</v>
+      </c>
+      <c r="E7" s="8">
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="7">
+        <v>20</v>
+      </c>
+      <c r="C8" s="7">
+        <v>3</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0.001</v>
+      </c>
+      <c r="E8" s="8">
+        <v>-180</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" s="7">
+        <v>23</v>
+      </c>
+      <c r="C9" s="7">
+        <v>3</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0.001</v>
+      </c>
+      <c r="E9" s="8">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
 </file>